--- a/Code/Results/Cases/Case_2_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_48/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9775380920433666</v>
+        <v>0.9775380920433671</v>
       </c>
       <c r="D2">
-        <v>0.9997131968357539</v>
+        <v>0.999713196835754</v>
       </c>
       <c r="E2">
-        <v>0.9686028381927344</v>
+        <v>0.9686028381927345</v>
       </c>
       <c r="F2">
-        <v>0.9810566520034798</v>
+        <v>0.9810566520034799</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.036371980511988</v>
       </c>
       <c r="J2">
-        <v>1.00041203850454</v>
+        <v>1.000412038504541</v>
       </c>
       <c r="K2">
         <v>1.01117652872842</v>
       </c>
       <c r="L2">
-        <v>0.9805176362999087</v>
+        <v>0.980517636299909</v>
       </c>
       <c r="M2">
-        <v>0.9927863622693287</v>
+        <v>0.9927863622693288</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9865964093035725</v>
+        <v>0.9865964093035726</v>
       </c>
       <c r="D3">
         <v>1.00650682269675</v>
       </c>
       <c r="E3">
-        <v>0.9751560131385159</v>
+        <v>0.9751560131385157</v>
       </c>
       <c r="F3">
         <v>0.9896428028249373</v>
@@ -480,10 +480,10 @@
         <v>1.007459260870448</v>
       </c>
       <c r="K3">
-        <v>1.017057119032666</v>
+        <v>1.017057119032667</v>
       </c>
       <c r="L3">
-        <v>0.9861169665301798</v>
+        <v>0.9861169665301796</v>
       </c>
       <c r="M3">
         <v>1.000409943985008</v>
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9922403201471044</v>
+        <v>0.9922403201471029</v>
       </c>
       <c r="D4">
-        <v>1.010742017975501</v>
+        <v>1.0107420179755</v>
       </c>
       <c r="E4">
-        <v>0.9792641396194179</v>
+        <v>0.9792641396194177</v>
       </c>
       <c r="F4">
-        <v>0.995007834143749</v>
+        <v>0.9950078341437483</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041130516144173</v>
+        <v>1.041130516144172</v>
       </c>
       <c r="J4">
-        <v>1.011844623918118</v>
+        <v>1.011844623918117</v>
       </c>
       <c r="K4">
-        <v>1.020712502312409</v>
+        <v>1.020712502312407</v>
       </c>
       <c r="L4">
         <v>0.9896194429437234</v>
       </c>
       <c r="M4">
-        <v>1.005166885984379</v>
+        <v>1.005166885984378</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9945645143414237</v>
+        <v>0.9945645143414226</v>
       </c>
       <c r="D5">
-        <v>1.012486472617617</v>
+        <v>1.012486472617616</v>
       </c>
       <c r="E5">
         <v>0.9809615597147348</v>
       </c>
       <c r="F5">
-        <v>0.9972206877548397</v>
+        <v>0.9972206877548389</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.04187401699278</v>
       </c>
       <c r="J5">
-        <v>1.013649119596253</v>
+        <v>1.013649119596252</v>
       </c>
       <c r="K5">
-        <v>1.022215616083534</v>
+        <v>1.022215616083533</v>
       </c>
       <c r="L5">
         <v>0.9910648016064529</v>
       </c>
       <c r="M5">
-        <v>1.007127327216917</v>
+        <v>1.007127327216916</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,22 +573,22 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9949520084428568</v>
+        <v>0.9949520084428572</v>
       </c>
       <c r="D6">
-        <v>1.012777328640097</v>
+        <v>1.012777328640098</v>
       </c>
       <c r="E6">
-        <v>0.9812448810542902</v>
+        <v>0.9812448810542895</v>
       </c>
       <c r="F6">
-        <v>0.9975898204815838</v>
+        <v>0.9975898204815837</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041997718741416</v>
+        <v>1.041997718741417</v>
       </c>
       <c r="J6">
         <v>1.013949882179203</v>
@@ -597,7 +597,7 @@
         <v>1.0224660854356</v>
       </c>
       <c r="L6">
-        <v>0.9913059446905275</v>
+        <v>0.991305944690527</v>
       </c>
       <c r="M6">
         <v>1.007454259842599</v>
@@ -611,31 +611,31 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9922715623333589</v>
+        <v>0.9922715623333593</v>
       </c>
       <c r="D7">
         <v>1.010765465944006</v>
       </c>
       <c r="E7">
-        <v>0.9792869345629093</v>
+        <v>0.9792869345629094</v>
       </c>
       <c r="F7">
-        <v>0.9950375659948842</v>
+        <v>0.9950375659948845</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04114052759616</v>
+        <v>1.041140527596161</v>
       </c>
       <c r="J7">
         <v>1.011868885995844</v>
       </c>
       <c r="K7">
-        <v>1.020732716265842</v>
+        <v>1.020732716265843</v>
       </c>
       <c r="L7">
-        <v>0.9896388600603181</v>
+        <v>0.9896388600603182</v>
       </c>
       <c r="M7">
         <v>1.005193232782428</v>
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9806466733556656</v>
+        <v>0.9806466733556641</v>
       </c>
       <c r="D8">
-        <v>1.002043981335274</v>
+        <v>1.002043981335273</v>
       </c>
       <c r="E8">
-        <v>0.9708461708356985</v>
+        <v>0.9708461708356977</v>
       </c>
       <c r="F8">
-        <v>0.9839998379538377</v>
+        <v>0.9839998379538363</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.037385462244429</v>
       </c>
       <c r="J8">
-        <v>1.002831567350104</v>
+        <v>1.002831567350103</v>
       </c>
       <c r="K8">
-        <v>1.013196336598115</v>
+        <v>1.013196336598114</v>
       </c>
       <c r="L8">
-        <v>0.9824360871247867</v>
+        <v>0.9824360871247859</v>
       </c>
       <c r="M8">
-        <v>0.9954009939769659</v>
+        <v>0.9954009939769642</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -690,10 +690,10 @@
         <v>0.9583138571050348</v>
       </c>
       <c r="D9">
-        <v>0.9853181049865877</v>
+        <v>0.9853181049865879</v>
       </c>
       <c r="E9">
-        <v>0.954856894150635</v>
+        <v>0.9548568941506348</v>
       </c>
       <c r="F9">
         <v>0.9629310215284559</v>
@@ -705,16 +705,16 @@
         <v>1.030032110792435</v>
       </c>
       <c r="J9">
-        <v>0.9854296928980806</v>
+        <v>0.9854296928980807</v>
       </c>
       <c r="K9">
-        <v>0.9986539634610788</v>
+        <v>0.9986539634610789</v>
       </c>
       <c r="L9">
-        <v>0.9687274657474589</v>
+        <v>0.9687274657474586</v>
       </c>
       <c r="M9">
-        <v>0.9766555814048992</v>
+        <v>0.9766555814048993</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9418803430106557</v>
+        <v>0.9418803430106553</v>
       </c>
       <c r="D10">
-        <v>0.9730468857690411</v>
+        <v>0.9730468857690407</v>
       </c>
       <c r="E10">
-        <v>0.943279543661763</v>
+        <v>0.9432795436617625</v>
       </c>
       <c r="F10">
-        <v>0.9475373494871708</v>
+        <v>0.9475373494871705</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.024533859625798</v>
       </c>
       <c r="J10">
-        <v>0.972605990445659</v>
+        <v>0.9726059904456588</v>
       </c>
       <c r="K10">
-        <v>0.9879204581851726</v>
+        <v>0.9879204581851722</v>
       </c>
       <c r="L10">
-        <v>0.9587544221263543</v>
+        <v>0.9587544221263538</v>
       </c>
       <c r="M10">
-        <v>0.962923159743908</v>
+        <v>0.9629231597439075</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9343130204868039</v>
+        <v>0.9343130204868026</v>
       </c>
       <c r="D11">
-        <v>0.9674094123242175</v>
+        <v>0.9674094123242168</v>
       </c>
       <c r="E11">
-        <v>0.9380023852318633</v>
+        <v>0.9380023852318629</v>
       </c>
       <c r="F11">
-        <v>0.9404795946975686</v>
+        <v>0.9404795946975681</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.021983493863709</v>
       </c>
       <c r="J11">
-        <v>0.966698957767569</v>
+        <v>0.9666989577675681</v>
       </c>
       <c r="K11">
-        <v>0.9829732714279458</v>
+        <v>0.9829732714279451</v>
       </c>
       <c r="L11">
-        <v>0.9541965109594468</v>
+        <v>0.9541965109594462</v>
       </c>
       <c r="M11">
-        <v>0.9566186038827023</v>
+        <v>0.9566186038827019</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9314254029682641</v>
+        <v>0.9314254029682636</v>
       </c>
       <c r="D12">
-        <v>0.9652606499542212</v>
+        <v>0.9652606499542209</v>
       </c>
       <c r="E12">
-        <v>0.9359977323475414</v>
+        <v>0.9359977323475409</v>
       </c>
       <c r="F12">
-        <v>0.9377915236670286</v>
+        <v>0.9377915236670284</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021007743751918</v>
+        <v>1.021007743751917</v>
       </c>
       <c r="J12">
-        <v>0.9644448505533373</v>
+        <v>0.9644448505533368</v>
       </c>
       <c r="K12">
-        <v>0.9810851013289718</v>
+        <v>0.9810851013289715</v>
       </c>
       <c r="L12">
-        <v>0.9524631876712532</v>
+        <v>0.9524631876712527</v>
       </c>
       <c r="M12">
-        <v>0.9542161497652394</v>
+        <v>0.9542161497652393</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9320484436281888</v>
+        <v>0.932048443628188</v>
       </c>
       <c r="D13">
-        <v>0.9657241547626423</v>
+        <v>0.965724154762642</v>
       </c>
       <c r="E13">
         <v>0.9364298367008934</v>
       </c>
       <c r="F13">
-        <v>0.9383712710540066</v>
+        <v>0.9383712710540062</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.021218385520063</v>
       </c>
       <c r="J13">
-        <v>0.9649312004806536</v>
+        <v>0.964931200480653</v>
       </c>
       <c r="K13">
-        <v>0.9814925093368175</v>
+        <v>0.9814925093368173</v>
       </c>
       <c r="L13">
-        <v>0.9528368937006769</v>
+        <v>0.9528368937006768</v>
       </c>
       <c r="M13">
-        <v>0.9547343531027699</v>
+        <v>0.9547343531027694</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9340759532507529</v>
+        <v>0.9340759532507523</v>
       </c>
       <c r="D14">
-        <v>0.9672329511945483</v>
+        <v>0.967232951194548</v>
       </c>
       <c r="E14">
         <v>0.9378376182773679</v>
       </c>
       <c r="F14">
-        <v>0.940258803589938</v>
+        <v>0.9402588035899373</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.021903437093642</v>
       </c>
       <c r="J14">
-        <v>0.9665138995780755</v>
+        <v>0.9665138995780752</v>
       </c>
       <c r="K14">
-        <v>0.9828182621633372</v>
+        <v>0.982818262163337</v>
       </c>
       <c r="L14">
         <v>0.9540540840987239</v>
       </c>
       <c r="M14">
-        <v>0.9564212978217846</v>
+        <v>0.9564212978217842</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9353146983318591</v>
+        <v>0.9353146983318619</v>
       </c>
       <c r="D15">
-        <v>0.9681551136762114</v>
+        <v>0.9681551136762135</v>
       </c>
       <c r="E15">
-        <v>0.9386989464030681</v>
+        <v>0.9386989464030696</v>
       </c>
       <c r="F15">
-        <v>0.941412710832826</v>
+        <v>0.9414127108328285</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022321654900485</v>
+        <v>1.022321654900486</v>
       </c>
       <c r="J15">
-        <v>0.9674808822879282</v>
+        <v>0.9674808822879307</v>
       </c>
       <c r="K15">
-        <v>0.9836282175478371</v>
+        <v>0.9836282175478392</v>
       </c>
       <c r="L15">
-        <v>0.9547985507948066</v>
+        <v>0.9547985507948084</v>
       </c>
       <c r="M15">
-        <v>0.9574524159409438</v>
+        <v>0.9574524159409463</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9423723231026112</v>
+        <v>0.9423723231026133</v>
       </c>
       <c r="D16">
-        <v>0.9734137068715558</v>
+        <v>0.9734137068715576</v>
       </c>
       <c r="E16">
-        <v>0.9436238160720667</v>
+        <v>0.943623816072067</v>
       </c>
       <c r="F16">
-        <v>0.9479968703559749</v>
+        <v>0.9479968703559762</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.024699306209323</v>
       </c>
       <c r="J16">
-        <v>0.9729900088187866</v>
+        <v>0.9729900088187885</v>
       </c>
       <c r="K16">
-        <v>0.9882420243170199</v>
+        <v>0.9882420243170216</v>
       </c>
       <c r="L16">
-        <v>0.959051517168374</v>
+        <v>0.9590515171683747</v>
       </c>
       <c r="M16">
-        <v>0.9633334682849775</v>
+        <v>0.9633334682849787</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9466726994313116</v>
+        <v>0.9466726994313123</v>
       </c>
       <c r="D17">
-        <v>0.9766215951187839</v>
+        <v>0.9766215951187843</v>
       </c>
       <c r="E17">
-        <v>0.9466392155994632</v>
+        <v>0.946639215599464</v>
       </c>
       <c r="F17">
-        <v>0.9520170055529751</v>
+        <v>0.9520170055529763</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.026143420655828</v>
       </c>
       <c r="J17">
-        <v>0.976346503102394</v>
+        <v>0.9763465031023945</v>
       </c>
       <c r="K17">
-        <v>0.9910523370874834</v>
+        <v>0.9910523370874839</v>
       </c>
       <c r="L17">
-        <v>0.9616523415581529</v>
+        <v>0.9616523415581535</v>
       </c>
       <c r="M17">
-        <v>0.9669221220808325</v>
+        <v>0.9669221220808334</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9491381575882568</v>
+        <v>0.9491381575882567</v>
       </c>
       <c r="D18">
-        <v>0.9784619097494074</v>
+        <v>0.9784619097494073</v>
       </c>
       <c r="E18">
-        <v>0.9483729315355549</v>
+        <v>0.948372931535555</v>
       </c>
       <c r="F18">
-        <v>0.9543246206417865</v>
+        <v>0.9543246206417866</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,13 +1047,13 @@
         <v>1.026969610989046</v>
       </c>
       <c r="J18">
-        <v>0.9782706217885835</v>
+        <v>0.9782706217885832</v>
       </c>
       <c r="K18">
-        <v>0.9926630721518476</v>
+        <v>0.9926630721518475</v>
       </c>
       <c r="L18">
-        <v>0.9631465776213068</v>
+        <v>0.963146577621307</v>
       </c>
       <c r="M18">
         <v>0.968981271109862</v>
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.949971787132374</v>
+        <v>0.9499717871323741</v>
       </c>
       <c r="D19">
         <v>0.9790843536169199</v>
       </c>
       <c r="E19">
-        <v>0.9489599563889072</v>
+        <v>0.9489599563889075</v>
       </c>
       <c r="F19">
-        <v>0.9551053457843089</v>
+        <v>0.9551053457843096</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.027248664468551</v>
       </c>
       <c r="J19">
-        <v>0.9789211709408716</v>
+        <v>0.9789211709408717</v>
       </c>
       <c r="K19">
-        <v>0.9932076145030013</v>
+        <v>0.9932076145030015</v>
       </c>
       <c r="L19">
-        <v>0.963652328782888</v>
+        <v>0.9636523287828884</v>
       </c>
       <c r="M19">
-        <v>0.969677799400847</v>
+        <v>0.9696777994008473</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9462158041820896</v>
+        <v>0.9462158041820916</v>
       </c>
       <c r="D20">
-        <v>0.9762806444801685</v>
+        <v>0.9762806444801702</v>
       </c>
       <c r="E20">
-        <v>0.9463183216415434</v>
+        <v>0.9463183216415441</v>
       </c>
       <c r="F20">
-        <v>0.9515895876427496</v>
+        <v>0.9515895876427506</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025990169604525</v>
+        <v>1.025990169604526</v>
       </c>
       <c r="J20">
-        <v>0.9759899102078193</v>
+        <v>0.9759899102078212</v>
       </c>
       <c r="K20">
-        <v>0.9907537991766141</v>
+        <v>0.9907537991766157</v>
       </c>
       <c r="L20">
-        <v>0.96137568288704</v>
+        <v>0.9613756828870407</v>
       </c>
       <c r="M20">
-        <v>0.966540661015807</v>
+        <v>0.9665406610158082</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9334811021281854</v>
+        <v>0.9334811021281841</v>
       </c>
       <c r="D21">
-        <v>0.9667902143349291</v>
+        <v>0.9667902143349282</v>
       </c>
       <c r="E21">
-        <v>0.9374243325184809</v>
+        <v>0.9374243325184805</v>
       </c>
       <c r="F21">
-        <v>0.9397048762958413</v>
+        <v>0.9397048762958403</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.021702517808385</v>
       </c>
       <c r="J21">
-        <v>0.9660495502909741</v>
+        <v>0.9660495502909728</v>
       </c>
       <c r="K21">
-        <v>0.9824293068316866</v>
+        <v>0.9824293068316858</v>
       </c>
       <c r="L21">
-        <v>0.9536968033676553</v>
+        <v>0.9536968033676547</v>
       </c>
       <c r="M21">
-        <v>0.9559262704766747</v>
+        <v>0.9559262704766737</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.925024289510163</v>
+        <v>0.9250242895101628</v>
       </c>
       <c r="D22">
-        <v>0.9605025003566343</v>
+        <v>0.960502500356634</v>
       </c>
       <c r="E22">
-        <v>0.9315719152964602</v>
+        <v>0.9315719152964603</v>
       </c>
       <c r="F22">
-        <v>0.9318428185006269</v>
+        <v>0.9318428185006268</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.018840309708168</v>
       </c>
       <c r="J22">
-        <v>0.9594483176929411</v>
+        <v>0.9594483176929408</v>
       </c>
       <c r="K22">
-        <v>0.9768992295803757</v>
+        <v>0.9768992295803753</v>
       </c>
       <c r="L22">
-        <v>0.9486327940054595</v>
+        <v>0.9486327940054596</v>
       </c>
       <c r="M22">
-        <v>0.9488972213777322</v>
+        <v>0.9488972213777321</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9295535260063518</v>
+        <v>0.9295535260063511</v>
       </c>
       <c r="D23">
-        <v>0.9638684842641516</v>
+        <v>0.9638684842641505</v>
       </c>
       <c r="E23">
-        <v>0.9347009197472541</v>
+        <v>0.9347009197472534</v>
       </c>
       <c r="F23">
-        <v>0.936050508095833</v>
+        <v>0.9360505080958322</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.020374532063457</v>
       </c>
       <c r="J23">
-        <v>0.9629836664566429</v>
+        <v>0.962983666456642</v>
       </c>
       <c r="K23">
-        <v>0.9798610493218939</v>
+        <v>0.979861049321893</v>
       </c>
       <c r="L23">
-        <v>0.9513413523568004</v>
+        <v>0.9513413523567996</v>
       </c>
       <c r="M23">
-        <v>0.9526597725930721</v>
+        <v>0.9526597725930713</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9464223873260021</v>
+        <v>0.9464223873260008</v>
       </c>
       <c r="D24">
-        <v>0.9764348001061121</v>
+        <v>0.9764348001061112</v>
       </c>
       <c r="E24">
-        <v>0.9464633970684212</v>
+        <v>0.9464633970684209</v>
       </c>
       <c r="F24">
-        <v>0.9517828339885673</v>
+        <v>0.9517828339885668</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026059466808616</v>
+        <v>1.026059466808615</v>
       </c>
       <c r="J24">
-        <v>0.9761511427326387</v>
+        <v>0.9761511427326376</v>
       </c>
       <c r="K24">
-        <v>0.990888783186618</v>
+        <v>0.9908887831866171</v>
       </c>
       <c r="L24">
-        <v>0.9615007631118696</v>
+        <v>0.9615007631118692</v>
       </c>
       <c r="M24">
-        <v>0.9667131315782216</v>
+        <v>0.9667131315782211</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9643347092237494</v>
+        <v>0.9643347092237489</v>
       </c>
       <c r="D25">
-        <v>0.989822497812041</v>
+        <v>0.9898224978120408</v>
       </c>
       <c r="E25">
         <v>0.9591385023774832</v>
       </c>
       <c r="F25">
-        <v>0.9685939660375863</v>
+        <v>0.9685939660375869</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.032029850556919</v>
       </c>
       <c r="J25">
-        <v>0.9901249949751837</v>
+        <v>0.9901249949751835</v>
       </c>
       <c r="K25">
         <v>1.002580888088979</v>
       </c>
       <c r="L25">
-        <v>0.9724060887769121</v>
+        <v>0.9724060887769124</v>
       </c>
       <c r="M25">
-        <v>0.9817002050151435</v>
+        <v>0.9817002050151441</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_48/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9775380920433671</v>
+        <v>0.9775380920433666</v>
       </c>
       <c r="D2">
-        <v>0.999713196835754</v>
+        <v>0.9997131968357539</v>
       </c>
       <c r="E2">
-        <v>0.9686028381927345</v>
+        <v>0.9686028381927344</v>
       </c>
       <c r="F2">
-        <v>0.9810566520034799</v>
+        <v>0.9810566520034798</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.036371980511988</v>
       </c>
       <c r="J2">
-        <v>1.000412038504541</v>
+        <v>1.00041203850454</v>
       </c>
       <c r="K2">
         <v>1.01117652872842</v>
       </c>
       <c r="L2">
-        <v>0.980517636299909</v>
+        <v>0.9805176362999087</v>
       </c>
       <c r="M2">
-        <v>0.9927863622693288</v>
+        <v>0.9927863622693287</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9865964093035726</v>
+        <v>0.9865964093035725</v>
       </c>
       <c r="D3">
         <v>1.00650682269675</v>
       </c>
       <c r="E3">
-        <v>0.9751560131385157</v>
+        <v>0.9751560131385159</v>
       </c>
       <c r="F3">
         <v>0.9896428028249373</v>
@@ -480,10 +480,10 @@
         <v>1.007459260870448</v>
       </c>
       <c r="K3">
-        <v>1.017057119032667</v>
+        <v>1.017057119032666</v>
       </c>
       <c r="L3">
-        <v>0.9861169665301796</v>
+        <v>0.9861169665301798</v>
       </c>
       <c r="M3">
         <v>1.000409943985008</v>
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9922403201471029</v>
+        <v>0.9922403201471044</v>
       </c>
       <c r="D4">
-        <v>1.0107420179755</v>
+        <v>1.010742017975501</v>
       </c>
       <c r="E4">
-        <v>0.9792641396194177</v>
+        <v>0.9792641396194179</v>
       </c>
       <c r="F4">
-        <v>0.9950078341437483</v>
+        <v>0.995007834143749</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041130516144172</v>
+        <v>1.041130516144173</v>
       </c>
       <c r="J4">
-        <v>1.011844623918117</v>
+        <v>1.011844623918118</v>
       </c>
       <c r="K4">
-        <v>1.020712502312407</v>
+        <v>1.020712502312409</v>
       </c>
       <c r="L4">
         <v>0.9896194429437234</v>
       </c>
       <c r="M4">
-        <v>1.005166885984378</v>
+        <v>1.005166885984379</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9945645143414226</v>
+        <v>0.9945645143414237</v>
       </c>
       <c r="D5">
-        <v>1.012486472617616</v>
+        <v>1.012486472617617</v>
       </c>
       <c r="E5">
         <v>0.9809615597147348</v>
       </c>
       <c r="F5">
-        <v>0.9972206877548389</v>
+        <v>0.9972206877548397</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.04187401699278</v>
       </c>
       <c r="J5">
-        <v>1.013649119596252</v>
+        <v>1.013649119596253</v>
       </c>
       <c r="K5">
-        <v>1.022215616083533</v>
+        <v>1.022215616083534</v>
       </c>
       <c r="L5">
         <v>0.9910648016064529</v>
       </c>
       <c r="M5">
-        <v>1.007127327216916</v>
+        <v>1.007127327216917</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,22 +573,22 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9949520084428572</v>
+        <v>0.9949520084428568</v>
       </c>
       <c r="D6">
-        <v>1.012777328640098</v>
+        <v>1.012777328640097</v>
       </c>
       <c r="E6">
-        <v>0.9812448810542895</v>
+        <v>0.9812448810542902</v>
       </c>
       <c r="F6">
-        <v>0.9975898204815837</v>
+        <v>0.9975898204815838</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041997718741417</v>
+        <v>1.041997718741416</v>
       </c>
       <c r="J6">
         <v>1.013949882179203</v>
@@ -597,7 +597,7 @@
         <v>1.0224660854356</v>
       </c>
       <c r="L6">
-        <v>0.991305944690527</v>
+        <v>0.9913059446905275</v>
       </c>
       <c r="M6">
         <v>1.007454259842599</v>
@@ -611,31 +611,31 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9922715623333593</v>
+        <v>0.9922715623333589</v>
       </c>
       <c r="D7">
         <v>1.010765465944006</v>
       </c>
       <c r="E7">
-        <v>0.9792869345629094</v>
+        <v>0.9792869345629093</v>
       </c>
       <c r="F7">
-        <v>0.9950375659948845</v>
+        <v>0.9950375659948842</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041140527596161</v>
+        <v>1.04114052759616</v>
       </c>
       <c r="J7">
         <v>1.011868885995844</v>
       </c>
       <c r="K7">
-        <v>1.020732716265843</v>
+        <v>1.020732716265842</v>
       </c>
       <c r="L7">
-        <v>0.9896388600603182</v>
+        <v>0.9896388600603181</v>
       </c>
       <c r="M7">
         <v>1.005193232782428</v>
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9806466733556641</v>
+        <v>0.9806466733556656</v>
       </c>
       <c r="D8">
-        <v>1.002043981335273</v>
+        <v>1.002043981335274</v>
       </c>
       <c r="E8">
-        <v>0.9708461708356977</v>
+        <v>0.9708461708356985</v>
       </c>
       <c r="F8">
-        <v>0.9839998379538363</v>
+        <v>0.9839998379538377</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.037385462244429</v>
       </c>
       <c r="J8">
-        <v>1.002831567350103</v>
+        <v>1.002831567350104</v>
       </c>
       <c r="K8">
-        <v>1.013196336598114</v>
+        <v>1.013196336598115</v>
       </c>
       <c r="L8">
-        <v>0.9824360871247859</v>
+        <v>0.9824360871247867</v>
       </c>
       <c r="M8">
-        <v>0.9954009939769642</v>
+        <v>0.9954009939769659</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -690,10 +690,10 @@
         <v>0.9583138571050348</v>
       </c>
       <c r="D9">
-        <v>0.9853181049865879</v>
+        <v>0.9853181049865877</v>
       </c>
       <c r="E9">
-        <v>0.9548568941506348</v>
+        <v>0.954856894150635</v>
       </c>
       <c r="F9">
         <v>0.9629310215284559</v>
@@ -705,16 +705,16 @@
         <v>1.030032110792435</v>
       </c>
       <c r="J9">
-        <v>0.9854296928980807</v>
+        <v>0.9854296928980806</v>
       </c>
       <c r="K9">
-        <v>0.9986539634610789</v>
+        <v>0.9986539634610788</v>
       </c>
       <c r="L9">
-        <v>0.9687274657474586</v>
+        <v>0.9687274657474589</v>
       </c>
       <c r="M9">
-        <v>0.9766555814048993</v>
+        <v>0.9766555814048992</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9418803430106553</v>
+        <v>0.9418803430106557</v>
       </c>
       <c r="D10">
-        <v>0.9730468857690407</v>
+        <v>0.9730468857690411</v>
       </c>
       <c r="E10">
-        <v>0.9432795436617625</v>
+        <v>0.943279543661763</v>
       </c>
       <c r="F10">
-        <v>0.9475373494871705</v>
+        <v>0.9475373494871708</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.024533859625798</v>
       </c>
       <c r="J10">
-        <v>0.9726059904456588</v>
+        <v>0.972605990445659</v>
       </c>
       <c r="K10">
-        <v>0.9879204581851722</v>
+        <v>0.9879204581851726</v>
       </c>
       <c r="L10">
-        <v>0.9587544221263538</v>
+        <v>0.9587544221263543</v>
       </c>
       <c r="M10">
-        <v>0.9629231597439075</v>
+        <v>0.962923159743908</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9343130204868026</v>
+        <v>0.9343130204868039</v>
       </c>
       <c r="D11">
-        <v>0.9674094123242168</v>
+        <v>0.9674094123242175</v>
       </c>
       <c r="E11">
-        <v>0.9380023852318629</v>
+        <v>0.9380023852318633</v>
       </c>
       <c r="F11">
-        <v>0.9404795946975681</v>
+        <v>0.9404795946975686</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.021983493863709</v>
       </c>
       <c r="J11">
-        <v>0.9666989577675681</v>
+        <v>0.966698957767569</v>
       </c>
       <c r="K11">
-        <v>0.9829732714279451</v>
+        <v>0.9829732714279458</v>
       </c>
       <c r="L11">
-        <v>0.9541965109594462</v>
+        <v>0.9541965109594468</v>
       </c>
       <c r="M11">
-        <v>0.9566186038827019</v>
+        <v>0.9566186038827023</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9314254029682636</v>
+        <v>0.9314254029682641</v>
       </c>
       <c r="D12">
-        <v>0.9652606499542209</v>
+        <v>0.9652606499542212</v>
       </c>
       <c r="E12">
-        <v>0.9359977323475409</v>
+        <v>0.9359977323475414</v>
       </c>
       <c r="F12">
-        <v>0.9377915236670284</v>
+        <v>0.9377915236670286</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021007743751917</v>
+        <v>1.021007743751918</v>
       </c>
       <c r="J12">
-        <v>0.9644448505533368</v>
+        <v>0.9644448505533373</v>
       </c>
       <c r="K12">
-        <v>0.9810851013289715</v>
+        <v>0.9810851013289718</v>
       </c>
       <c r="L12">
-        <v>0.9524631876712527</v>
+        <v>0.9524631876712532</v>
       </c>
       <c r="M12">
-        <v>0.9542161497652393</v>
+        <v>0.9542161497652394</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.932048443628188</v>
+        <v>0.9320484436281888</v>
       </c>
       <c r="D13">
-        <v>0.965724154762642</v>
+        <v>0.9657241547626423</v>
       </c>
       <c r="E13">
         <v>0.9364298367008934</v>
       </c>
       <c r="F13">
-        <v>0.9383712710540062</v>
+        <v>0.9383712710540066</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.021218385520063</v>
       </c>
       <c r="J13">
-        <v>0.964931200480653</v>
+        <v>0.9649312004806536</v>
       </c>
       <c r="K13">
-        <v>0.9814925093368173</v>
+        <v>0.9814925093368175</v>
       </c>
       <c r="L13">
-        <v>0.9528368937006768</v>
+        <v>0.9528368937006769</v>
       </c>
       <c r="M13">
-        <v>0.9547343531027694</v>
+        <v>0.9547343531027699</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9340759532507523</v>
+        <v>0.9340759532507529</v>
       </c>
       <c r="D14">
-        <v>0.967232951194548</v>
+        <v>0.9672329511945483</v>
       </c>
       <c r="E14">
         <v>0.9378376182773679</v>
       </c>
       <c r="F14">
-        <v>0.9402588035899373</v>
+        <v>0.940258803589938</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.021903437093642</v>
       </c>
       <c r="J14">
-        <v>0.9665138995780752</v>
+        <v>0.9665138995780755</v>
       </c>
       <c r="K14">
-        <v>0.982818262163337</v>
+        <v>0.9828182621633372</v>
       </c>
       <c r="L14">
         <v>0.9540540840987239</v>
       </c>
       <c r="M14">
-        <v>0.9564212978217842</v>
+        <v>0.9564212978217846</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9353146983318619</v>
+        <v>0.9353146983318591</v>
       </c>
       <c r="D15">
-        <v>0.9681551136762135</v>
+        <v>0.9681551136762114</v>
       </c>
       <c r="E15">
-        <v>0.9386989464030696</v>
+        <v>0.9386989464030681</v>
       </c>
       <c r="F15">
-        <v>0.9414127108328285</v>
+        <v>0.941412710832826</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022321654900486</v>
+        <v>1.022321654900485</v>
       </c>
       <c r="J15">
-        <v>0.9674808822879307</v>
+        <v>0.9674808822879282</v>
       </c>
       <c r="K15">
-        <v>0.9836282175478392</v>
+        <v>0.9836282175478371</v>
       </c>
       <c r="L15">
-        <v>0.9547985507948084</v>
+        <v>0.9547985507948066</v>
       </c>
       <c r="M15">
-        <v>0.9574524159409463</v>
+        <v>0.9574524159409438</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9423723231026133</v>
+        <v>0.9423723231026112</v>
       </c>
       <c r="D16">
-        <v>0.9734137068715576</v>
+        <v>0.9734137068715558</v>
       </c>
       <c r="E16">
-        <v>0.943623816072067</v>
+        <v>0.9436238160720667</v>
       </c>
       <c r="F16">
-        <v>0.9479968703559762</v>
+        <v>0.9479968703559749</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.024699306209323</v>
       </c>
       <c r="J16">
-        <v>0.9729900088187885</v>
+        <v>0.9729900088187866</v>
       </c>
       <c r="K16">
-        <v>0.9882420243170216</v>
+        <v>0.9882420243170199</v>
       </c>
       <c r="L16">
-        <v>0.9590515171683747</v>
+        <v>0.959051517168374</v>
       </c>
       <c r="M16">
-        <v>0.9633334682849787</v>
+        <v>0.9633334682849775</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9466726994313123</v>
+        <v>0.9466726994313116</v>
       </c>
       <c r="D17">
-        <v>0.9766215951187843</v>
+        <v>0.9766215951187839</v>
       </c>
       <c r="E17">
-        <v>0.946639215599464</v>
+        <v>0.9466392155994632</v>
       </c>
       <c r="F17">
-        <v>0.9520170055529763</v>
+        <v>0.9520170055529751</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.026143420655828</v>
       </c>
       <c r="J17">
-        <v>0.9763465031023945</v>
+        <v>0.976346503102394</v>
       </c>
       <c r="K17">
-        <v>0.9910523370874839</v>
+        <v>0.9910523370874834</v>
       </c>
       <c r="L17">
-        <v>0.9616523415581535</v>
+        <v>0.9616523415581529</v>
       </c>
       <c r="M17">
-        <v>0.9669221220808334</v>
+        <v>0.9669221220808325</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9491381575882567</v>
+        <v>0.9491381575882568</v>
       </c>
       <c r="D18">
-        <v>0.9784619097494073</v>
+        <v>0.9784619097494074</v>
       </c>
       <c r="E18">
-        <v>0.948372931535555</v>
+        <v>0.9483729315355549</v>
       </c>
       <c r="F18">
-        <v>0.9543246206417866</v>
+        <v>0.9543246206417865</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,13 +1047,13 @@
         <v>1.026969610989046</v>
       </c>
       <c r="J18">
-        <v>0.9782706217885832</v>
+        <v>0.9782706217885835</v>
       </c>
       <c r="K18">
-        <v>0.9926630721518475</v>
+        <v>0.9926630721518476</v>
       </c>
       <c r="L18">
-        <v>0.963146577621307</v>
+        <v>0.9631465776213068</v>
       </c>
       <c r="M18">
         <v>0.968981271109862</v>
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9499717871323741</v>
+        <v>0.949971787132374</v>
       </c>
       <c r="D19">
         <v>0.9790843536169199</v>
       </c>
       <c r="E19">
-        <v>0.9489599563889075</v>
+        <v>0.9489599563889072</v>
       </c>
       <c r="F19">
-        <v>0.9551053457843096</v>
+        <v>0.9551053457843089</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.027248664468551</v>
       </c>
       <c r="J19">
-        <v>0.9789211709408717</v>
+        <v>0.9789211709408716</v>
       </c>
       <c r="K19">
-        <v>0.9932076145030015</v>
+        <v>0.9932076145030013</v>
       </c>
       <c r="L19">
-        <v>0.9636523287828884</v>
+        <v>0.963652328782888</v>
       </c>
       <c r="M19">
-        <v>0.9696777994008473</v>
+        <v>0.969677799400847</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9462158041820916</v>
+        <v>0.9462158041820896</v>
       </c>
       <c r="D20">
-        <v>0.9762806444801702</v>
+        <v>0.9762806444801685</v>
       </c>
       <c r="E20">
-        <v>0.9463183216415441</v>
+        <v>0.9463183216415434</v>
       </c>
       <c r="F20">
-        <v>0.9515895876427506</v>
+        <v>0.9515895876427496</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025990169604526</v>
+        <v>1.025990169604525</v>
       </c>
       <c r="J20">
-        <v>0.9759899102078212</v>
+        <v>0.9759899102078193</v>
       </c>
       <c r="K20">
-        <v>0.9907537991766157</v>
+        <v>0.9907537991766141</v>
       </c>
       <c r="L20">
-        <v>0.9613756828870407</v>
+        <v>0.96137568288704</v>
       </c>
       <c r="M20">
-        <v>0.9665406610158082</v>
+        <v>0.966540661015807</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9334811021281841</v>
+        <v>0.9334811021281854</v>
       </c>
       <c r="D21">
-        <v>0.9667902143349282</v>
+        <v>0.9667902143349291</v>
       </c>
       <c r="E21">
-        <v>0.9374243325184805</v>
+        <v>0.9374243325184809</v>
       </c>
       <c r="F21">
-        <v>0.9397048762958403</v>
+        <v>0.9397048762958413</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.021702517808385</v>
       </c>
       <c r="J21">
-        <v>0.9660495502909728</v>
+        <v>0.9660495502909741</v>
       </c>
       <c r="K21">
-        <v>0.9824293068316858</v>
+        <v>0.9824293068316866</v>
       </c>
       <c r="L21">
-        <v>0.9536968033676547</v>
+        <v>0.9536968033676553</v>
       </c>
       <c r="M21">
-        <v>0.9559262704766737</v>
+        <v>0.9559262704766747</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9250242895101628</v>
+        <v>0.925024289510163</v>
       </c>
       <c r="D22">
-        <v>0.960502500356634</v>
+        <v>0.9605025003566343</v>
       </c>
       <c r="E22">
-        <v>0.9315719152964603</v>
+        <v>0.9315719152964602</v>
       </c>
       <c r="F22">
-        <v>0.9318428185006268</v>
+        <v>0.9318428185006269</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.018840309708168</v>
       </c>
       <c r="J22">
-        <v>0.9594483176929408</v>
+        <v>0.9594483176929411</v>
       </c>
       <c r="K22">
-        <v>0.9768992295803753</v>
+        <v>0.9768992295803757</v>
       </c>
       <c r="L22">
-        <v>0.9486327940054596</v>
+        <v>0.9486327940054595</v>
       </c>
       <c r="M22">
-        <v>0.9488972213777321</v>
+        <v>0.9488972213777322</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9295535260063511</v>
+        <v>0.9295535260063518</v>
       </c>
       <c r="D23">
-        <v>0.9638684842641505</v>
+        <v>0.9638684842641516</v>
       </c>
       <c r="E23">
-        <v>0.9347009197472534</v>
+        <v>0.9347009197472541</v>
       </c>
       <c r="F23">
-        <v>0.9360505080958322</v>
+        <v>0.936050508095833</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.020374532063457</v>
       </c>
       <c r="J23">
-        <v>0.962983666456642</v>
+        <v>0.9629836664566429</v>
       </c>
       <c r="K23">
-        <v>0.979861049321893</v>
+        <v>0.9798610493218939</v>
       </c>
       <c r="L23">
-        <v>0.9513413523567996</v>
+        <v>0.9513413523568004</v>
       </c>
       <c r="M23">
-        <v>0.9526597725930713</v>
+        <v>0.9526597725930721</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9464223873260008</v>
+        <v>0.9464223873260021</v>
       </c>
       <c r="D24">
-        <v>0.9764348001061112</v>
+        <v>0.9764348001061121</v>
       </c>
       <c r="E24">
-        <v>0.9464633970684209</v>
+        <v>0.9464633970684212</v>
       </c>
       <c r="F24">
-        <v>0.9517828339885668</v>
+        <v>0.9517828339885673</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026059466808615</v>
+        <v>1.026059466808616</v>
       </c>
       <c r="J24">
-        <v>0.9761511427326376</v>
+        <v>0.9761511427326387</v>
       </c>
       <c r="K24">
-        <v>0.9908887831866171</v>
+        <v>0.990888783186618</v>
       </c>
       <c r="L24">
-        <v>0.9615007631118692</v>
+        <v>0.9615007631118696</v>
       </c>
       <c r="M24">
-        <v>0.9667131315782211</v>
+        <v>0.9667131315782216</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9643347092237489</v>
+        <v>0.9643347092237494</v>
       </c>
       <c r="D25">
-        <v>0.9898224978120408</v>
+        <v>0.989822497812041</v>
       </c>
       <c r="E25">
         <v>0.9591385023774832</v>
       </c>
       <c r="F25">
-        <v>0.9685939660375869</v>
+        <v>0.9685939660375863</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.032029850556919</v>
       </c>
       <c r="J25">
-        <v>0.9901249949751835</v>
+        <v>0.9901249949751837</v>
       </c>
       <c r="K25">
         <v>1.002580888088979</v>
       </c>
       <c r="L25">
-        <v>0.9724060887769124</v>
+        <v>0.9724060887769121</v>
       </c>
       <c r="M25">
-        <v>0.9817002050151441</v>
+        <v>0.9817002050151435</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_48/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9775380920433666</v>
+        <v>0.9804365149001766</v>
       </c>
       <c r="D2">
-        <v>0.9997131968357539</v>
+        <v>1.001887166834761</v>
       </c>
       <c r="E2">
-        <v>0.9686028381927344</v>
+        <v>0.9695575291175036</v>
       </c>
       <c r="F2">
-        <v>0.9810566520034798</v>
+        <v>0.9832030226693841</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036371980511988</v>
+        <v>1.037474821085633</v>
       </c>
       <c r="J2">
-        <v>1.00041203850454</v>
+        <v>1.003218537657277</v>
       </c>
       <c r="K2">
-        <v>1.01117652872842</v>
+        <v>1.013320272889157</v>
       </c>
       <c r="L2">
-        <v>0.9805176362999087</v>
+        <v>0.9814579244042615</v>
       </c>
       <c r="M2">
-        <v>0.9927863622693287</v>
+        <v>0.9949014344921903</v>
+      </c>
+      <c r="N2">
+        <v>1.004643223051525</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9865964093035725</v>
+        <v>0.9894700580368949</v>
       </c>
       <c r="D3">
-        <v>1.00650682269675</v>
+        <v>1.00866540829336</v>
       </c>
       <c r="E3">
-        <v>0.9751560131385159</v>
+        <v>0.9760970402536008</v>
       </c>
       <c r="F3">
-        <v>0.9896428028249373</v>
+        <v>0.9917677731535306</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039314596536075</v>
+        <v>1.040411004136319</v>
       </c>
       <c r="J3">
-        <v>1.007459260870448</v>
+        <v>1.010251954875044</v>
       </c>
       <c r="K3">
-        <v>1.017057119032666</v>
+        <v>1.019188601361494</v>
       </c>
       <c r="L3">
-        <v>0.9861169665301798</v>
+        <v>0.9870451842334073</v>
       </c>
       <c r="M3">
-        <v>1.000409943985008</v>
+        <v>1.002507081919061</v>
+      </c>
+      <c r="N3">
+        <v>1.011686628528486</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9922403201471044</v>
+        <v>0.9950997834385323</v>
       </c>
       <c r="D4">
-        <v>1.010742017975501</v>
+        <v>1.012891863920798</v>
       </c>
       <c r="E4">
-        <v>0.9792641396194179</v>
+        <v>0.9801972405582143</v>
       </c>
       <c r="F4">
-        <v>0.995007834143749</v>
+        <v>0.9971204648526329</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041130516144173</v>
+        <v>1.042223360110911</v>
       </c>
       <c r="J4">
-        <v>1.011844623918118</v>
+        <v>1.014629673321135</v>
       </c>
       <c r="K4">
-        <v>1.020712502312409</v>
+        <v>1.022837146181126</v>
       </c>
       <c r="L4">
-        <v>0.9896194429437234</v>
+        <v>0.9905406930124675</v>
       </c>
       <c r="M4">
-        <v>1.005166885984379</v>
+        <v>1.007253768018271</v>
+      </c>
+      <c r="N4">
+        <v>1.016070563836901</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9945645143414237</v>
+        <v>0.9974184076829703</v>
       </c>
       <c r="D5">
-        <v>1.012486472617617</v>
+        <v>1.014632904508398</v>
       </c>
       <c r="E5">
-        <v>0.9809615597147348</v>
+        <v>0.9818915249353832</v>
       </c>
       <c r="F5">
-        <v>0.9972206877548397</v>
+        <v>0.9993284531905773</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04187401699278</v>
+        <v>1.042965491521095</v>
       </c>
       <c r="J5">
-        <v>1.013649119596253</v>
+        <v>1.016431229928561</v>
       </c>
       <c r="K5">
-        <v>1.022215616083534</v>
+        <v>1.024337619512178</v>
       </c>
       <c r="L5">
-        <v>0.9910648016064529</v>
+        <v>0.9919833034525838</v>
       </c>
       <c r="M5">
-        <v>1.007127327216917</v>
+        <v>1.009210186089473</v>
+      </c>
+      <c r="N5">
+        <v>1.017874678861351</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9949520084428568</v>
+        <v>0.9978049883870651</v>
       </c>
       <c r="D6">
-        <v>1.012777328640097</v>
+        <v>1.014923201741219</v>
       </c>
       <c r="E6">
-        <v>0.9812448810542902</v>
+        <v>0.9821743306982834</v>
       </c>
       <c r="F6">
-        <v>0.9975898204815838</v>
+        <v>0.9996967869024106</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041997718741416</v>
+        <v>1.04308897049875</v>
       </c>
       <c r="J6">
-        <v>1.013949882179203</v>
+        <v>1.016731514257083</v>
       </c>
       <c r="K6">
-        <v>1.0224660854356</v>
+        <v>1.024587658541137</v>
       </c>
       <c r="L6">
-        <v>0.9913059446905275</v>
+        <v>0.9922239951643327</v>
       </c>
       <c r="M6">
-        <v>1.007454259842599</v>
+        <v>1.009536459217853</v>
+      </c>
+      <c r="N6">
+        <v>1.018175389628063</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9922715623333589</v>
+        <v>0.9951309497101973</v>
       </c>
       <c r="D7">
-        <v>1.010765465944006</v>
+        <v>1.012915265285681</v>
       </c>
       <c r="E7">
-        <v>0.9792869345629093</v>
+        <v>0.9802199928575783</v>
       </c>
       <c r="F7">
-        <v>0.9950375659948842</v>
+        <v>0.997150130473982</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04114052759616</v>
+        <v>1.042233352776318</v>
       </c>
       <c r="J7">
-        <v>1.011868885995844</v>
+        <v>1.014653895087954</v>
       </c>
       <c r="K7">
-        <v>1.020732716265842</v>
+        <v>1.022857323965236</v>
       </c>
       <c r="L7">
-        <v>0.9896388600603181</v>
+        <v>0.9905600727211964</v>
       </c>
       <c r="M7">
-        <v>1.005193232782428</v>
+        <v>1.007280059966942</v>
+      </c>
+      <c r="N7">
+        <v>1.016094820001407</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9806466733556656</v>
+        <v>0.9835363101504141</v>
       </c>
       <c r="D8">
-        <v>1.002043981335274</v>
+        <v>1.004212480354758</v>
       </c>
       <c r="E8">
-        <v>0.9708461708356985</v>
+        <v>0.9717960397127106</v>
       </c>
       <c r="F8">
-        <v>0.9839998379538377</v>
+        <v>0.9861386387733319</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037385462244429</v>
+        <v>1.038485995142685</v>
       </c>
       <c r="J8">
-        <v>1.002831567350104</v>
+        <v>1.005633112169058</v>
       </c>
       <c r="K8">
-        <v>1.013196336598115</v>
+        <v>1.015335691670065</v>
       </c>
       <c r="L8">
-        <v>0.9824360871247867</v>
+        <v>0.9833721079180336</v>
       </c>
       <c r="M8">
-        <v>0.9954009939769659</v>
+        <v>0.9975097033871009</v>
+      </c>
+      <c r="N8">
+        <v>1.007061226536068</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9583138571050348</v>
+        <v>0.9612735933647542</v>
       </c>
       <c r="D9">
-        <v>0.9853181049865877</v>
+        <v>0.9875305655590364</v>
       </c>
       <c r="E9">
-        <v>0.954856894150635</v>
+        <v>0.9558446413574209</v>
       </c>
       <c r="F9">
-        <v>0.9629310215284559</v>
+        <v>0.965129739062477</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030032110792435</v>
+        <v>1.031151626054342</v>
       </c>
       <c r="J9">
-        <v>0.9854296928980806</v>
+        <v>0.9882721128232845</v>
       </c>
       <c r="K9">
-        <v>0.9986539634610788</v>
+        <v>1.000829243124654</v>
       </c>
       <c r="L9">
-        <v>0.9687274657474589</v>
+        <v>0.9696971782717678</v>
       </c>
       <c r="M9">
-        <v>0.9766555814048992</v>
+        <v>0.9788150868008644</v>
+      </c>
+      <c r="N9">
+        <v>0.9896755725798896</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9418803430106557</v>
+        <v>0.9449029061779415</v>
       </c>
       <c r="D10">
-        <v>0.9730468857690411</v>
+        <v>0.9752991218631366</v>
       </c>
       <c r="E10">
-        <v>0.943279543661763</v>
+        <v>0.9443003203465438</v>
       </c>
       <c r="F10">
-        <v>0.9475373494871708</v>
+        <v>0.9497890492367617</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024533859625798</v>
+        <v>1.025671125963072</v>
       </c>
       <c r="J10">
-        <v>0.972605990445659</v>
+        <v>0.9754869291996745</v>
       </c>
       <c r="K10">
-        <v>0.9879204581851726</v>
+        <v>0.9901291547779886</v>
       </c>
       <c r="L10">
-        <v>0.9587544221263543</v>
+        <v>0.9597537485707567</v>
       </c>
       <c r="M10">
-        <v>0.962923159743908</v>
+        <v>0.9651281828179754</v>
+      </c>
+      <c r="N10">
+        <v>0.9768722325290526</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9343130204868039</v>
+        <v>0.9373681190013514</v>
       </c>
       <c r="D11">
-        <v>0.9674094123242175</v>
+        <v>0.9696823184613821</v>
       </c>
       <c r="E11">
-        <v>0.9380023852318633</v>
+        <v>0.9390400031008662</v>
       </c>
       <c r="F11">
-        <v>0.9404795946975686</v>
+        <v>0.9427585331025697</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021983493863709</v>
+        <v>1.023130117027509</v>
       </c>
       <c r="J11">
-        <v>0.966698957767569</v>
+        <v>0.9696003155953727</v>
       </c>
       <c r="K11">
-        <v>0.9829732714279458</v>
+        <v>0.9851995616114083</v>
       </c>
       <c r="L11">
-        <v>0.9541965109594468</v>
+        <v>0.955210995280328</v>
       </c>
       <c r="M11">
-        <v>0.9566186038827023</v>
+        <v>0.9588471773270814</v>
+      </c>
+      <c r="N11">
+        <v>0.9709772592582288</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9314254029682641</v>
+        <v>0.9344935627593489</v>
       </c>
       <c r="D12">
-        <v>0.9652606499542212</v>
+        <v>0.9675418631866974</v>
       </c>
       <c r="E12">
-        <v>0.9359977323475414</v>
+        <v>0.9370420670297791</v>
       </c>
       <c r="F12">
-        <v>0.9377915236670286</v>
+        <v>0.9400813643477823</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021007743751918</v>
+        <v>1.022158146873951</v>
       </c>
       <c r="J12">
-        <v>0.9644448505533373</v>
+        <v>0.9673544786786207</v>
       </c>
       <c r="K12">
-        <v>0.9810851013289718</v>
+        <v>0.9833184975953909</v>
       </c>
       <c r="L12">
-        <v>0.9524631876712532</v>
+        <v>0.9534837264447972</v>
       </c>
       <c r="M12">
-        <v>0.9542161497652394</v>
+        <v>0.9564541723052739</v>
+      </c>
+      <c r="N12">
+        <v>0.9687282329954541</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9320484436281888</v>
+        <v>0.9351137541972189</v>
       </c>
       <c r="D13">
-        <v>0.9657241547626423</v>
+        <v>0.9680035554835787</v>
       </c>
       <c r="E13">
-        <v>0.9364298367008934</v>
+        <v>0.9374727082099709</v>
       </c>
       <c r="F13">
-        <v>0.9383712710540066</v>
+        <v>0.940658734993998</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021218385520063</v>
+        <v>1.022367963029179</v>
       </c>
       <c r="J13">
-        <v>0.9649312004806536</v>
+        <v>0.9678390211931558</v>
       </c>
       <c r="K13">
-        <v>0.9814925093368175</v>
+        <v>0.9837243535347648</v>
       </c>
       <c r="L13">
-        <v>0.9528368937006769</v>
+        <v>0.9538561131803615</v>
       </c>
       <c r="M13">
-        <v>0.9547343531027699</v>
+        <v>0.956970314658114</v>
+      </c>
+      <c r="N13">
+        <v>0.9692134636159376</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9340759532507529</v>
+        <v>0.9371321103092145</v>
       </c>
       <c r="D14">
-        <v>0.9672329511945483</v>
+        <v>0.9695065304042719</v>
       </c>
       <c r="E14">
-        <v>0.9378376182773679</v>
+        <v>0.9388757814111882</v>
       </c>
       <c r="F14">
-        <v>0.940258803589938</v>
+        <v>0.9425386262310266</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021903437093642</v>
+        <v>1.023050366136978</v>
       </c>
       <c r="J14">
-        <v>0.9665138995780755</v>
+        <v>0.9694159262002713</v>
       </c>
       <c r="K14">
-        <v>0.9828182621633372</v>
+        <v>0.985045127397702</v>
       </c>
       <c r="L14">
-        <v>0.9540540840987239</v>
+        <v>0.9550690597335865</v>
       </c>
       <c r="M14">
-        <v>0.9564212978217846</v>
+        <v>0.9586506371781178</v>
+      </c>
+      <c r="N14">
+        <v>0.9707926080090368</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9353146983318591</v>
+        <v>0.9383653510469847</v>
       </c>
       <c r="D15">
-        <v>0.9681551136762114</v>
+        <v>0.9704251933145797</v>
       </c>
       <c r="E15">
-        <v>0.9386989464030681</v>
+        <v>0.9397342724277071</v>
       </c>
       <c r="F15">
-        <v>0.941412710832826</v>
+        <v>0.9436879342043116</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022321654900485</v>
+        <v>1.023466994327928</v>
       </c>
       <c r="J15">
-        <v>0.9674808822879282</v>
+        <v>0.9703794341458777</v>
       </c>
       <c r="K15">
-        <v>0.9836282175478371</v>
+        <v>0.985852094274872</v>
       </c>
       <c r="L15">
-        <v>0.9547985507948066</v>
+        <v>0.9558109703957329</v>
       </c>
       <c r="M15">
-        <v>0.9574524159409438</v>
+        <v>0.959677772399074</v>
+      </c>
+      <c r="N15">
+        <v>0.9717574842464416</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9423723231026112</v>
+        <v>0.9453928532137333</v>
       </c>
       <c r="D16">
-        <v>0.9734137068715558</v>
+        <v>0.9756646526234896</v>
       </c>
       <c r="E16">
-        <v>0.9436238160720667</v>
+        <v>0.9446435348948634</v>
       </c>
       <c r="F16">
-        <v>0.9479968703559749</v>
+        <v>0.9502468639272075</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024699306209323</v>
+        <v>1.025835990996421</v>
       </c>
       <c r="J16">
-        <v>0.9729900088187866</v>
+        <v>0.9758696810366925</v>
       </c>
       <c r="K16">
-        <v>0.9882420243170199</v>
+        <v>0.9904496271584061</v>
       </c>
       <c r="L16">
-        <v>0.959051517168374</v>
+        <v>0.9600498926514319</v>
       </c>
       <c r="M16">
-        <v>0.9633334682849775</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9655370191860098</v>
+      </c>
+      <c r="N16">
+        <v>0.9772555279175814</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9466726994313116</v>
+        <v>0.9496758711458941</v>
       </c>
       <c r="D17">
-        <v>0.9766215951187839</v>
+        <v>0.9788615312091853</v>
       </c>
       <c r="E17">
-        <v>0.9466392155994632</v>
+        <v>0.947649874238995</v>
       </c>
       <c r="F17">
-        <v>0.9520170055529751</v>
+        <v>0.9542524105325799</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026143420655828</v>
+        <v>1.027275157245274</v>
       </c>
       <c r="J17">
-        <v>0.976346503102394</v>
+        <v>0.9792154112627713</v>
       </c>
       <c r="K17">
-        <v>0.9910523370874834</v>
+        <v>0.9932506316281218</v>
       </c>
       <c r="L17">
-        <v>0.9616523415581529</v>
+        <v>0.9626425786027508</v>
       </c>
       <c r="M17">
-        <v>0.9669221220808325</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9691131010263477</v>
+      </c>
+      <c r="N17">
+        <v>0.980606009464342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9491381575882568</v>
+        <v>0.9521317047712028</v>
       </c>
       <c r="D18">
-        <v>0.9784619097494074</v>
+        <v>0.9806957477640244</v>
       </c>
       <c r="E18">
-        <v>0.9483729315355549</v>
+        <v>0.9493785441609356</v>
       </c>
       <c r="F18">
-        <v>0.9543246206417865</v>
+        <v>0.9565519198317978</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026969610989046</v>
+        <v>1.028098618282139</v>
       </c>
       <c r="J18">
-        <v>0.9782706217885835</v>
+        <v>0.9811336024136671</v>
       </c>
       <c r="K18">
-        <v>0.9926630721518476</v>
+        <v>0.9948562305851431</v>
       </c>
       <c r="L18">
-        <v>0.9631465776213068</v>
+        <v>0.9641322870819667</v>
       </c>
       <c r="M18">
-        <v>0.968981271109862</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9711652776979717</v>
+      </c>
+      <c r="N18">
+        <v>0.9825269246666917</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.949971787132374</v>
+        <v>0.9529621328864395</v>
       </c>
       <c r="D19">
-        <v>0.9790843536169199</v>
+        <v>0.9813161643334047</v>
       </c>
       <c r="E19">
-        <v>0.9489599563889072</v>
+        <v>0.9499638868397876</v>
       </c>
       <c r="F19">
-        <v>0.9551053457843089</v>
+        <v>0.957329945912019</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027248664468551</v>
+        <v>1.028376766359875</v>
       </c>
       <c r="J19">
-        <v>0.9789211709408716</v>
+        <v>0.9817821867278004</v>
       </c>
       <c r="K19">
-        <v>0.9932076145030013</v>
+        <v>0.9953990687437568</v>
       </c>
       <c r="L19">
-        <v>0.963652328782888</v>
+        <v>0.9646365297509428</v>
       </c>
       <c r="M19">
-        <v>0.969677799400847</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9718594865163492</v>
+      </c>
+      <c r="N19">
+        <v>0.9831764300449447</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9462158041820896</v>
+        <v>0.9492207854210319</v>
       </c>
       <c r="D20">
-        <v>0.9762806444801685</v>
+        <v>0.9785217276137995</v>
       </c>
       <c r="E20">
-        <v>0.9463183216415434</v>
+        <v>0.9473299271599642</v>
       </c>
       <c r="F20">
-        <v>0.9515895876427496</v>
+        <v>0.9538265152188344</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025990169604525</v>
+        <v>1.027122420519083</v>
       </c>
       <c r="J20">
-        <v>0.9759899102078193</v>
+        <v>0.978859936160651</v>
       </c>
       <c r="K20">
-        <v>0.9907537991766141</v>
+        <v>0.9929530614281594</v>
       </c>
       <c r="L20">
-        <v>0.96137568288704</v>
+        <v>0.9623667699438611</v>
       </c>
       <c r="M20">
-        <v>0.966540661015807</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9687329507164464</v>
+      </c>
+      <c r="N20">
+        <v>0.9802500295468032</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9334811021281854</v>
+        <v>0.9365399260632422</v>
       </c>
       <c r="D21">
-        <v>0.9667902143349291</v>
+        <v>0.9690654894102506</v>
       </c>
       <c r="E21">
-        <v>0.9374243325184809</v>
+        <v>0.9384638686682535</v>
       </c>
       <c r="F21">
-        <v>0.9397048762958413</v>
+        <v>0.9419869261378341</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021702517808385</v>
+        <v>1.022850217850761</v>
       </c>
       <c r="J21">
-        <v>0.9660495502909741</v>
+        <v>0.968953263027643</v>
       </c>
       <c r="K21">
-        <v>0.9824293068316866</v>
+        <v>0.9846576215222671</v>
       </c>
       <c r="L21">
-        <v>0.9536968033676553</v>
+        <v>0.9547130163101336</v>
       </c>
       <c r="M21">
-        <v>0.9559262704766747</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9581575393686951</v>
+      </c>
+      <c r="N21">
+        <v>0.9703292878016349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.925024289510163</v>
+        <v>0.9281227412830851</v>
       </c>
       <c r="D22">
-        <v>0.9605025003566343</v>
+        <v>0.9628029947701171</v>
       </c>
       <c r="E22">
-        <v>0.9315719152964602</v>
+        <v>0.9326317383493402</v>
       </c>
       <c r="F22">
-        <v>0.9318428185006269</v>
+        <v>0.9341578783287378</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.018840309708168</v>
+        <v>1.019999523112628</v>
       </c>
       <c r="J22">
-        <v>0.9594483176929411</v>
+        <v>0.9623772678718394</v>
       </c>
       <c r="K22">
-        <v>0.9768992295803757</v>
+        <v>0.9791491881166156</v>
       </c>
       <c r="L22">
-        <v>0.9486327940054595</v>
+        <v>0.949667311168892</v>
       </c>
       <c r="M22">
-        <v>0.9488972213777322</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.951157146064464</v>
+      </c>
+      <c r="N22">
+        <v>0.9637439539784328</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9295535260063518</v>
+        <v>0.9326303504415003</v>
       </c>
       <c r="D23">
-        <v>0.9638684842641516</v>
+        <v>0.9661552106456083</v>
       </c>
       <c r="E23">
-        <v>0.9347009197472541</v>
+        <v>0.9357496971525573</v>
       </c>
       <c r="F23">
-        <v>0.936050508095833</v>
+        <v>0.9383475715301247</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020374532063457</v>
+        <v>1.021527449321527</v>
       </c>
       <c r="J23">
-        <v>0.9629836664566429</v>
+        <v>0.9658988019578888</v>
       </c>
       <c r="K23">
-        <v>0.9798610493218939</v>
+        <v>0.9820991718495169</v>
       </c>
       <c r="L23">
-        <v>0.9513413523568004</v>
+        <v>0.9523658983294864</v>
       </c>
       <c r="M23">
-        <v>0.9526597725930721</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9549040617698998</v>
+      </c>
+      <c r="N23">
+        <v>0.9672704890468101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9464223873260021</v>
+        <v>0.949426549385376</v>
       </c>
       <c r="D24">
-        <v>0.9764348001061121</v>
+        <v>0.9786753639481496</v>
       </c>
       <c r="E24">
-        <v>0.9464633970684212</v>
+        <v>0.9474745740013846</v>
       </c>
       <c r="F24">
-        <v>0.9517828339885673</v>
+        <v>0.9540190723320691</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026059466808616</v>
+        <v>1.027191484840807</v>
       </c>
       <c r="J24">
-        <v>0.9761511427326387</v>
+        <v>0.9790206625276243</v>
       </c>
       <c r="K24">
-        <v>0.990888783186618</v>
+        <v>0.9930876072723818</v>
       </c>
       <c r="L24">
-        <v>0.9615007631118696</v>
+        <v>0.9624914654120004</v>
       </c>
       <c r="M24">
-        <v>0.9667131315782216</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9689048278995798</v>
+      </c>
+      <c r="N24">
+        <v>0.9804109841636531</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9643347092237494</v>
+        <v>0.9672739050519774</v>
       </c>
       <c r="D25">
-        <v>0.989822497812041</v>
+        <v>0.9920220152383468</v>
       </c>
       <c r="E25">
-        <v>0.9591385023774832</v>
+        <v>0.9601152795293006</v>
       </c>
       <c r="F25">
-        <v>0.9685939660375863</v>
+        <v>0.9707752295896119</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032029850556919</v>
+        <v>1.033143687940138</v>
       </c>
       <c r="J25">
-        <v>0.9901249949751837</v>
+        <v>0.9929551563518608</v>
       </c>
       <c r="K25">
-        <v>1.002580888088979</v>
+        <v>1.004745454647761</v>
       </c>
       <c r="L25">
-        <v>0.9724060887769121</v>
+        <v>0.973366007926989</v>
       </c>
       <c r="M25">
-        <v>0.9817002050151435</v>
+        <v>0.9838448227277224</v>
+      </c>
+      <c r="N25">
+        <v>0.994365266567429</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_48/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9804365149001766</v>
+        <v>1.014592933536084</v>
       </c>
       <c r="D2">
-        <v>1.001887166834761</v>
+        <v>1.03126638479644</v>
       </c>
       <c r="E2">
-        <v>0.9695575291175036</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9832030226693841</v>
+        <v>1.03233148718697</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037474821085633</v>
+        <v>1.046774659200114</v>
       </c>
       <c r="J2">
-        <v>1.003218537657277</v>
+        <v>1.036345764004877</v>
       </c>
       <c r="K2">
-        <v>1.013320272889157</v>
+        <v>1.042306659043711</v>
       </c>
       <c r="L2">
-        <v>0.9814579244042615</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9949014344921903</v>
+        <v>1.04335804524205</v>
       </c>
       <c r="N2">
-        <v>1.004643223051525</v>
+        <v>1.037817493860284</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9894700580368949</v>
+        <v>1.023290514576635</v>
       </c>
       <c r="D3">
-        <v>1.00866540829336</v>
+        <v>1.038209631069155</v>
       </c>
       <c r="E3">
-        <v>0.9760970402536008</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9917677731535306</v>
+        <v>1.040217931031448</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040411004136319</v>
+        <v>1.049593309965936</v>
       </c>
       <c r="J3">
-        <v>1.010251954875044</v>
+        <v>1.043165783506908</v>
       </c>
       <c r="K3">
-        <v>1.019188601361494</v>
+        <v>1.048375885079728</v>
       </c>
       <c r="L3">
-        <v>0.9870451842334073</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.002507081919061</v>
+        <v>1.050360831771213</v>
       </c>
       <c r="N3">
-        <v>1.011686628528486</v>
+        <v>1.044647198572276</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9950997834385323</v>
+        <v>1.028724558439392</v>
       </c>
       <c r="D4">
-        <v>1.012891863920798</v>
+        <v>1.042549878576001</v>
       </c>
       <c r="E4">
-        <v>0.9801972405582143</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9971204648526329</v>
+        <v>1.045152096810362</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042223360110911</v>
+        <v>1.05134054062289</v>
       </c>
       <c r="J4">
-        <v>1.014629673321135</v>
+        <v>1.047420973437157</v>
       </c>
       <c r="K4">
-        <v>1.022837146181126</v>
+        <v>1.052160517070888</v>
       </c>
       <c r="L4">
-        <v>0.9905406930124675</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.007253768018271</v>
+        <v>1.054734485451942</v>
       </c>
       <c r="N4">
-        <v>1.016070563836901</v>
+        <v>1.048908431360303</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9974184076829703</v>
+        <v>1.030965600935361</v>
       </c>
       <c r="D5">
-        <v>1.014632904508398</v>
+        <v>1.044340245483021</v>
       </c>
       <c r="E5">
-        <v>0.9818915249353832</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>0.9993284531905773</v>
+        <v>1.047188522919331</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042965491521095</v>
+        <v>1.052057727585019</v>
       </c>
       <c r="J5">
-        <v>1.016431229928561</v>
+        <v>1.049174383431904</v>
       </c>
       <c r="K5">
-        <v>1.024337619512178</v>
+        <v>1.053719488562842</v>
       </c>
       <c r="L5">
-        <v>0.9919833034525838</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
-        <v>1.009210186089473</v>
+        <v>1.056537746913171</v>
       </c>
       <c r="N5">
-        <v>1.017874678861351</v>
+        <v>1.050664331398361</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9978049883870651</v>
+        <v>1.031339416374638</v>
       </c>
       <c r="D6">
-        <v>1.014923201741219</v>
+        <v>1.044638907118606</v>
       </c>
       <c r="E6">
-        <v>0.9821743306982834</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
-        <v>0.9996967869024106</v>
+        <v>1.047528294652066</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04308897049875</v>
+        <v>1.052177156227047</v>
       </c>
       <c r="J6">
-        <v>1.016731514257083</v>
+        <v>1.049466771563111</v>
       </c>
       <c r="K6">
-        <v>1.024587658541137</v>
+        <v>1.053979420762175</v>
       </c>
       <c r="L6">
-        <v>0.9922239951643327</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>1.009536459217853</v>
+        <v>1.056838508267629</v>
       </c>
       <c r="N6">
-        <v>1.018175389628063</v>
+        <v>1.050957134754251</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9951309497101973</v>
+        <v>1.028754670282841</v>
       </c>
       <c r="D7">
-        <v>1.012915265285681</v>
+        <v>1.042573933423218</v>
       </c>
       <c r="E7">
-        <v>0.9802199928575783</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
-        <v>0.997150130473982</v>
+        <v>1.045179453377496</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042233352776318</v>
+        <v>1.051350190635141</v>
       </c>
       <c r="J7">
-        <v>1.014653895087954</v>
+        <v>1.047444539081865</v>
       </c>
       <c r="K7">
-        <v>1.022857323965236</v>
+        <v>1.052181471656011</v>
       </c>
       <c r="L7">
-        <v>0.9905600727211964</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
-        <v>1.007280059966942</v>
+        <v>1.054758717018381</v>
       </c>
       <c r="N7">
-        <v>1.016094820001407</v>
+        <v>1.048932030470929</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9835363101504141</v>
+        <v>1.01757435881452</v>
       </c>
       <c r="D8">
-        <v>1.004212480354758</v>
+        <v>1.033645880444524</v>
       </c>
       <c r="E8">
-        <v>0.9717960397127106</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>0.9861386387733319</v>
+        <v>1.03503332611211</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038485995142685</v>
+        <v>1.047743732481791</v>
       </c>
       <c r="J8">
-        <v>1.005633112169058</v>
+        <v>1.038684764893651</v>
       </c>
       <c r="K8">
-        <v>1.015335691670065</v>
+        <v>1.044388596543265</v>
       </c>
       <c r="L8">
-        <v>0.9833721079180336</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9975097033871009</v>
+        <v>1.045758771764776</v>
       </c>
       <c r="N8">
-        <v>1.007061226536068</v>
+        <v>1.040159816398608</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9612735933647542</v>
+        <v>0.9962361275205092</v>
       </c>
       <c r="D9">
-        <v>0.9875305655590364</v>
+        <v>1.016631816713417</v>
       </c>
       <c r="E9">
-        <v>0.9558446413574209</v>
+        <v>0.9435740419923924</v>
       </c>
       <c r="F9">
-        <v>0.965129739062477</v>
+        <v>1.015731967692946</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031151626054342</v>
+        <v>1.040751168840117</v>
       </c>
       <c r="J9">
-        <v>0.9882721128232845</v>
+        <v>1.021922501545044</v>
       </c>
       <c r="K9">
-        <v>1.000829243124654</v>
+        <v>1.029460696822869</v>
       </c>
       <c r="L9">
-        <v>0.9696971782717678</v>
+        <v>0.9576541208832517</v>
       </c>
       <c r="M9">
-        <v>0.9788150868008644</v>
+        <v>1.02857485891203</v>
       </c>
       <c r="N9">
-        <v>0.9896755725798896</v>
+        <v>1.023373748713387</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9449029061779415</v>
+        <v>0.9806622913812669</v>
       </c>
       <c r="D10">
-        <v>0.9752991218631366</v>
+        <v>1.004242947266581</v>
       </c>
       <c r="E10">
-        <v>0.9443003203465438</v>
+        <v>0.9361465105547279</v>
       </c>
       <c r="F10">
-        <v>0.9497890492367617</v>
+        <v>1.001698560539284</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025671125963072</v>
+        <v>1.035578673973078</v>
       </c>
       <c r="J10">
-        <v>0.9754869291996745</v>
+        <v>1.009664720583763</v>
       </c>
       <c r="K10">
-        <v>0.9901291547779886</v>
+        <v>1.018536014252676</v>
       </c>
       <c r="L10">
-        <v>0.9597537485707567</v>
+        <v>0.9517730114689356</v>
       </c>
       <c r="M10">
-        <v>0.9651281828179754</v>
+        <v>1.016037214524694</v>
       </c>
       <c r="N10">
-        <v>0.9768722325290526</v>
+        <v>1.011098560297154</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9373681190013514</v>
+        <v>0.9735307270781268</v>
       </c>
       <c r="D11">
-        <v>0.9696823184613821</v>
+        <v>0.9985797972520659</v>
       </c>
       <c r="E11">
-        <v>0.9390400031008662</v>
+        <v>0.9328454960016259</v>
       </c>
       <c r="F11">
-        <v>0.9427585331025697</v>
+        <v>0.9952880592474044</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023130117027509</v>
+        <v>1.033195286402347</v>
       </c>
       <c r="J11">
-        <v>0.9696003155953727</v>
+        <v>1.004047677325541</v>
       </c>
       <c r="K11">
-        <v>0.9851995616114083</v>
+        <v>1.013528546307029</v>
       </c>
       <c r="L11">
-        <v>0.955210995280328</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9588471773270814</v>
+        <v>1.010299386318671</v>
       </c>
       <c r="N11">
-        <v>0.9709772592582288</v>
+        <v>1.005473540193222</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9344935627593489</v>
+        <v>0.9708164314280961</v>
       </c>
       <c r="D12">
-        <v>0.9675418631866974</v>
+        <v>0.9964261884920125</v>
       </c>
       <c r="E12">
-        <v>0.9370420670297791</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.9400813643477823</v>
+        <v>0.9928508461754523</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022158146873951</v>
+        <v>1.032286096631036</v>
       </c>
       <c r="J12">
-        <v>0.9673544786786207</v>
+        <v>1.001909387042553</v>
       </c>
       <c r="K12">
-        <v>0.9833184975953909</v>
+        <v>1.011622178878472</v>
       </c>
       <c r="L12">
-        <v>0.9534837264447972</v>
+        <v>0.9481721277252509</v>
       </c>
       <c r="M12">
-        <v>0.9564541723052739</v>
+        <v>1.008116306463297</v>
       </c>
       <c r="N12">
-        <v>0.9687282329954541</v>
+        <v>1.003332213292766</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9351137541972189</v>
+        <v>0.9714017388687528</v>
       </c>
       <c r="D13">
-        <v>0.9680035554835787</v>
+        <v>0.9968905033225059</v>
       </c>
       <c r="E13">
-        <v>0.9374727082099709</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.940658734993998</v>
+        <v>0.9933762795429734</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022367963029179</v>
+        <v>1.032482243544743</v>
       </c>
       <c r="J13">
-        <v>0.9678390211931558</v>
+        <v>1.002370501591998</v>
       </c>
       <c r="K13">
-        <v>0.9837243535347648</v>
+        <v>1.012033284776916</v>
       </c>
       <c r="L13">
-        <v>0.9538561131803615</v>
+        <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>0.956970314658114</v>
+        <v>1.008587024794148</v>
       </c>
       <c r="N13">
-        <v>0.9692134636159376</v>
+        <v>1.003793982677762</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9371321103092145</v>
+        <v>0.9733077399381828</v>
       </c>
       <c r="D14">
-        <v>0.9695065304042719</v>
+        <v>0.9984028337027403</v>
       </c>
       <c r="E14">
-        <v>0.9388757814111882</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.9425386262310266</v>
+        <v>0.995087779907542</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023050366136978</v>
+        <v>1.03312063467051</v>
       </c>
       <c r="J14">
-        <v>0.9694159262002713</v>
+        <v>1.003872018228814</v>
       </c>
       <c r="K14">
-        <v>0.985045127397702</v>
+        <v>1.013371941722064</v>
       </c>
       <c r="L14">
-        <v>0.9550690597335865</v>
+        <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9586506371781178</v>
+        <v>1.010120023250561</v>
       </c>
       <c r="N14">
-        <v>0.9707926080090368</v>
+        <v>1.005297631640429</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9383653510469847</v>
+        <v>0.9744732044351009</v>
       </c>
       <c r="D15">
-        <v>0.9704251933145797</v>
+        <v>0.9993278264017124</v>
       </c>
       <c r="E15">
-        <v>0.9397342724277071</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.9436879342043116</v>
+        <v>0.996134668848517</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023466994327928</v>
+        <v>1.033510726652357</v>
       </c>
       <c r="J15">
-        <v>0.9703794341458777</v>
+        <v>1.004790101791442</v>
       </c>
       <c r="K15">
-        <v>0.985852094274872</v>
+        <v>1.014190431902845</v>
       </c>
       <c r="L15">
-        <v>0.9558109703957329</v>
+        <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.959677772399074</v>
+        <v>1.011057514365362</v>
       </c>
       <c r="N15">
-        <v>0.9717574842464416</v>
+        <v>1.006217018987022</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9453928532137333</v>
+        <v>0.981126842601589</v>
       </c>
       <c r="D16">
-        <v>0.9756646526234896</v>
+        <v>1.004612075473998</v>
       </c>
       <c r="E16">
-        <v>0.9446435348948634</v>
+        <v>0.9363637346017256</v>
       </c>
       <c r="F16">
-        <v>0.9502468639272075</v>
+        <v>1.002116487473386</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025835990996421</v>
+        <v>1.035733636223214</v>
       </c>
       <c r="J16">
-        <v>0.9758696810366925</v>
+        <v>1.010030547621714</v>
       </c>
       <c r="K16">
-        <v>0.9904496271584061</v>
+        <v>1.018862119293527</v>
       </c>
       <c r="L16">
-        <v>0.9600498926514319</v>
+        <v>0.9519451749175714</v>
       </c>
       <c r="M16">
-        <v>0.9655370191860098</v>
+        <v>1.01641106722381</v>
       </c>
       <c r="N16">
-        <v>0.9772555279175814</v>
+        <v>1.01146490685146</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9496758711458941</v>
+        <v>0.9851920208498008</v>
       </c>
       <c r="D17">
-        <v>0.9788615312091853</v>
+        <v>1.007843377491465</v>
       </c>
       <c r="E17">
-        <v>0.947649874238995</v>
+        <v>0.9382760156855667</v>
       </c>
       <c r="F17">
-        <v>0.9542524105325799</v>
+        <v>1.005775454221555</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027275157245274</v>
+        <v>1.037088031743926</v>
       </c>
       <c r="J17">
-        <v>0.9792154112627713</v>
+        <v>1.013231386802537</v>
       </c>
       <c r="K17">
-        <v>0.9932506316281218</v>
+        <v>1.021715267429719</v>
       </c>
       <c r="L17">
-        <v>0.9626425786027508</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>0.9691131010263477</v>
+        <v>1.019682970968701</v>
       </c>
       <c r="N17">
-        <v>0.980606009464342</v>
+        <v>1.014670291591061</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9521317047712028</v>
+        <v>0.9875262674915182</v>
       </c>
       <c r="D18">
-        <v>0.9806957477640244</v>
+        <v>1.009699714754845</v>
       </c>
       <c r="E18">
-        <v>0.9493785441609356</v>
+        <v>0.9393832867215686</v>
       </c>
       <c r="F18">
-        <v>0.9565519198317978</v>
+        <v>1.007877893113208</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028098618282139</v>
+        <v>1.037864341023409</v>
       </c>
       <c r="J18">
-        <v>0.9811336024136671</v>
+        <v>1.01506894347386</v>
       </c>
       <c r="K18">
-        <v>0.9948562305851431</v>
+        <v>1.023353092914482</v>
       </c>
       <c r="L18">
-        <v>0.9641322870819667</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9711652776979717</v>
+        <v>1.021562015416675</v>
       </c>
       <c r="N18">
-        <v>0.9825269246666917</v>
+        <v>1.016510457803628</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9529621328864395</v>
+        <v>0.9883161202640802</v>
       </c>
       <c r="D19">
-        <v>0.9813161643334047</v>
+        <v>1.010328000000079</v>
       </c>
       <c r="E19">
-        <v>0.9499638868397876</v>
+        <v>0.9397594814680089</v>
       </c>
       <c r="F19">
-        <v>0.957329945912019</v>
+        <v>1.008589544368908</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028376766359875</v>
+        <v>1.038126784975341</v>
       </c>
       <c r="J19">
-        <v>0.9817821867278004</v>
+        <v>1.015690658971613</v>
       </c>
       <c r="K19">
-        <v>0.9953990687437568</v>
+        <v>1.023907208438545</v>
       </c>
       <c r="L19">
-        <v>0.9646365297509428</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.9718594865163492</v>
+        <v>1.022197883083436</v>
       </c>
       <c r="N19">
-        <v>0.9831764300449447</v>
+        <v>1.017133056208699</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9492207854210319</v>
+        <v>0.9847597297293487</v>
       </c>
       <c r="D20">
-        <v>0.9785217276137995</v>
+        <v>1.007499664408058</v>
       </c>
       <c r="E20">
-        <v>0.9473299271599642</v>
+        <v>0.9380716924660141</v>
       </c>
       <c r="F20">
-        <v>0.9538265152188344</v>
+        <v>1.005386207790785</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027122420519083</v>
+        <v>1.036944149078214</v>
       </c>
       <c r="J20">
-        <v>0.978859936160651</v>
+        <v>1.012891048146117</v>
       </c>
       <c r="K20">
-        <v>0.9929530614281594</v>
+        <v>1.021411910789184</v>
       </c>
       <c r="L20">
-        <v>0.9623667699438611</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>0.9687329507164464</v>
+        <v>1.019335003836374</v>
       </c>
       <c r="N20">
-        <v>0.9802500295468032</v>
+        <v>1.014329469614711</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9365399260632422</v>
+        <v>0.972748335680417</v>
       </c>
       <c r="D21">
-        <v>0.9690654894102506</v>
+        <v>0.9979589181781716</v>
       </c>
       <c r="E21">
-        <v>0.9384638686682535</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9419869261378341</v>
+        <v>0.9945853858529696</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022850217850761</v>
+        <v>1.032933324492347</v>
       </c>
       <c r="J21">
-        <v>0.968953263027643</v>
+        <v>1.003431338855025</v>
       </c>
       <c r="K21">
-        <v>0.9846576215222671</v>
+        <v>1.012979062932899</v>
       </c>
       <c r="L21">
-        <v>0.9547130163101336</v>
+        <v>0.9488714019981065</v>
       </c>
       <c r="M21">
-        <v>0.9581575393686951</v>
+        <v>1.009670071026664</v>
       </c>
       <c r="N21">
-        <v>0.9703292878016349</v>
+        <v>1.004856326451383</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9281227412830851</v>
+        <v>0.9648139698955669</v>
       </c>
       <c r="D22">
-        <v>0.9628029947701171</v>
+        <v>0.9916673653510831</v>
       </c>
       <c r="E22">
-        <v>0.9326317383493402</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>0.9341578783287378</v>
+        <v>0.9874663846022415</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.019999523112628</v>
+        <v>1.030271869165433</v>
       </c>
       <c r="J22">
-        <v>0.9623772678718394</v>
+        <v>0.9971801430069194</v>
       </c>
       <c r="K22">
-        <v>0.9791491881166156</v>
+        <v>1.007405720588384</v>
       </c>
       <c r="L22">
-        <v>0.949667311168892</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>0.951157146064464</v>
+        <v>1.0032902920624</v>
       </c>
       <c r="N22">
-        <v>0.9637439539784328</v>
+        <v>0.9985962531881504</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9326303504415003</v>
+        <v>0.9690590487652747</v>
       </c>
       <c r="D23">
-        <v>0.9661552106456083</v>
+        <v>0.9950323763895635</v>
       </c>
       <c r="E23">
-        <v>0.9357496971525573</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>0.9383475715301247</v>
+        <v>0.9912736475785352</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021527449321527</v>
+        <v>1.031696877273529</v>
       </c>
       <c r="J23">
-        <v>0.9658988019578888</v>
+        <v>1.000524845036647</v>
       </c>
       <c r="K23">
-        <v>0.9820991718495169</v>
+        <v>1.010387779484233</v>
       </c>
       <c r="L23">
-        <v>0.9523658983294864</v>
+        <v>0.9475391330285315</v>
       </c>
       <c r="M23">
-        <v>0.9549040617698998</v>
+        <v>1.006703108755099</v>
       </c>
       <c r="N23">
-        <v>0.9672704890468101</v>
+        <v>1.001945705078403</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.949426549385376</v>
+        <v>0.9849551770041197</v>
       </c>
       <c r="D24">
-        <v>0.9786753639481496</v>
+        <v>1.007655061020442</v>
       </c>
       <c r="E24">
-        <v>0.9474745740013846</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>0.9540190723320691</v>
+        <v>1.005562189257122</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027191484840807</v>
+        <v>1.0370092055875</v>
       </c>
       <c r="J24">
-        <v>0.9790206625276243</v>
+        <v>1.013044923112791</v>
       </c>
       <c r="K24">
-        <v>0.9930876072723818</v>
+        <v>1.021549065731176</v>
       </c>
       <c r="L24">
-        <v>0.9624914654120004</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>0.9689048278995798</v>
+        <v>1.019492325669678</v>
       </c>
       <c r="N24">
-        <v>0.9804109841636531</v>
+        <v>1.014483563101488</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9672739050519774</v>
+        <v>1.001969921295423</v>
       </c>
       <c r="D25">
-        <v>0.9920220152383468</v>
+        <v>1.021199662595726</v>
       </c>
       <c r="E25">
-        <v>0.9601152795293006</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>0.9707752295896119</v>
+        <v>1.020910181859878</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033143687940138</v>
+        <v>1.04264222212897</v>
       </c>
       <c r="J25">
-        <v>0.9929551563518608</v>
+        <v>1.026431171113703</v>
       </c>
       <c r="K25">
-        <v>1.004745454647761</v>
+        <v>1.033477559255994</v>
       </c>
       <c r="L25">
-        <v>0.973366007926989</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>0.9838448227277224</v>
+        <v>1.033192340009689</v>
       </c>
       <c r="N25">
-        <v>0.994365266567429</v>
+        <v>1.027888821109985</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_48/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.014592933536084</v>
+        <v>1.000288590245178</v>
       </c>
       <c r="D2">
-        <v>1.03126638479644</v>
+        <v>1.022026821638819</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.03233148718697</v>
+        <v>1.021761350601165</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046774659200114</v>
+        <v>1.04769545122183</v>
       </c>
       <c r="J2">
-        <v>1.036345764004877</v>
+        <v>1.022460673053515</v>
       </c>
       <c r="K2">
-        <v>1.042306659043711</v>
+        <v>1.033187585445318</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.04335804524205</v>
+        <v>1.032925616698281</v>
       </c>
       <c r="N2">
-        <v>1.037817493860284</v>
+        <v>1.01097091078307</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023290514576635</v>
+        <v>1.006826884355504</v>
       </c>
       <c r="D3">
-        <v>1.038209631069155</v>
+        <v>1.027238895097957</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.040217931031448</v>
+        <v>1.027790790598676</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049593309965936</v>
+        <v>1.04984803891325</v>
       </c>
       <c r="J3">
-        <v>1.043165783506908</v>
+        <v>1.027133156058474</v>
       </c>
       <c r="K3">
-        <v>1.048375885079728</v>
+        <v>1.037534719541068</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.050360831771213</v>
+        <v>1.038080014920569</v>
       </c>
       <c r="N3">
-        <v>1.044647198572276</v>
+        <v>1.012562162209734</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028724558439392</v>
+        <v>1.010938502995404</v>
       </c>
       <c r="D4">
-        <v>1.042549878576001</v>
+        <v>1.030517326548585</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.045152096810362</v>
+        <v>1.031587524164149</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05134054062289</v>
+        <v>1.051185571294508</v>
       </c>
       <c r="J4">
-        <v>1.047420973437157</v>
+        <v>1.030066480013062</v>
       </c>
       <c r="K4">
-        <v>1.052160517070888</v>
+        <v>1.040260874222332</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.054734485451942</v>
+        <v>1.041319096055796</v>
       </c>
       <c r="N4">
-        <v>1.048908431360303</v>
+        <v>1.013560594020721</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030965600935361</v>
+        <v>1.012639946041949</v>
       </c>
       <c r="D5">
-        <v>1.044340245483021</v>
+        <v>1.031874086014419</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.047188522919331</v>
+        <v>1.033159810427251</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052057727585019</v>
+        <v>1.051735121030037</v>
       </c>
       <c r="J5">
-        <v>1.049174383431904</v>
+        <v>1.031279079940984</v>
       </c>
       <c r="K5">
-        <v>1.053719488562842</v>
+        <v>1.041387106779617</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.056537746913171</v>
+        <v>1.042658850588855</v>
       </c>
       <c r="N5">
-        <v>1.050664331398361</v>
+        <v>1.013973196638776</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031339416374638</v>
+        <v>1.012924077322809</v>
       </c>
       <c r="D6">
-        <v>1.044638907118606</v>
+        <v>1.032100660384586</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.047528294652066</v>
+        <v>1.033422438509441</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052177156227047</v>
+        <v>1.051826659048672</v>
       </c>
       <c r="J6">
-        <v>1.049466771563111</v>
+        <v>1.031481502206604</v>
       </c>
       <c r="K6">
-        <v>1.053979420762175</v>
+        <v>1.041575068085626</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.056838508267629</v>
+        <v>1.042882543318977</v>
       </c>
       <c r="N6">
-        <v>1.050957134754251</v>
+        <v>1.014042065118369</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028754670282841</v>
+        <v>1.010961342360733</v>
       </c>
       <c r="D7">
-        <v>1.042573933423218</v>
+        <v>1.030535538767263</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.045179453377496</v>
+        <v>1.031608625352511</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051350190635141</v>
+        <v>1.051192963867072</v>
       </c>
       <c r="J7">
-        <v>1.047444539081865</v>
+        <v>1.030082762392723</v>
       </c>
       <c r="K7">
-        <v>1.052181471656011</v>
+        <v>1.040275999798199</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.054758717018381</v>
+        <v>1.041337082839186</v>
       </c>
       <c r="N7">
-        <v>1.048932030470929</v>
+        <v>1.013566134860697</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.01757435881452</v>
+        <v>1.002523793101643</v>
       </c>
       <c r="D8">
-        <v>1.033645880444524</v>
+        <v>1.02380840838544</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.03503332611211</v>
+        <v>1.023821467596317</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047743732481791</v>
+        <v>1.04843469842072</v>
       </c>
       <c r="J8">
-        <v>1.038684764893651</v>
+        <v>1.024059037933468</v>
       </c>
       <c r="K8">
-        <v>1.044388596543265</v>
+        <v>1.034675255037905</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.045758771764776</v>
+        <v>1.034688147490423</v>
       </c>
       <c r="N8">
-        <v>1.040159816398608</v>
+        <v>1.011515354399139</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9962361275205092</v>
+        <v>0.9866731091512956</v>
       </c>
       <c r="D9">
-        <v>1.016631816713417</v>
+        <v>1.011182201940332</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.015731967692946</v>
+        <v>1.009238011584176</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040751168840117</v>
+        <v>1.043125908201411</v>
       </c>
       <c r="J9">
-        <v>1.021922501545044</v>
+        <v>1.012705413559747</v>
       </c>
       <c r="K9">
-        <v>1.029460696822869</v>
+        <v>1.024096424013665</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.02857485891203</v>
+        <v>1.022182965693601</v>
       </c>
       <c r="N9">
-        <v>1.023373748713387</v>
+        <v>1.007646077596489</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9806622913812669</v>
+        <v>0.9753355774086363</v>
       </c>
       <c r="D10">
-        <v>1.004242947266581</v>
+        <v>1.002166109833197</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.001698560539284</v>
+        <v>0.9988441950351338</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035578673973078</v>
+        <v>1.039247086201554</v>
       </c>
       <c r="J10">
-        <v>1.009664720583763</v>
+        <v>1.004563135704162</v>
       </c>
       <c r="K10">
-        <v>1.018536014252676</v>
+        <v>1.016496364326225</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.016037214524694</v>
+        <v>1.013234349302264</v>
       </c>
       <c r="N10">
-        <v>1.011098560297154</v>
+        <v>1.00486916394374</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9735307270781268</v>
+        <v>0.970215261105922</v>
       </c>
       <c r="D11">
-        <v>0.9985797972520659</v>
+        <v>0.9980996432448194</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.9952880592474044</v>
+        <v>0.9941605660752528</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033195286402347</v>
+        <v>1.037477141499141</v>
       </c>
       <c r="J11">
-        <v>1.004047677325541</v>
+        <v>1.000881847838565</v>
       </c>
       <c r="K11">
-        <v>1.013528546307029</v>
+        <v>1.013057486715452</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.010299386318671</v>
+        <v>1.009193452213556</v>
       </c>
       <c r="N11">
-        <v>1.005473540193222</v>
+        <v>1.003613329017081</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9708164314280961</v>
+        <v>0.9682788796232915</v>
       </c>
       <c r="D12">
-        <v>0.9964261884920125</v>
+        <v>0.9965627932071577</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9928508461754523</v>
+        <v>0.9923910585688959</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032286096631036</v>
+        <v>1.036805173062255</v>
       </c>
       <c r="J12">
-        <v>1.001909387042553</v>
+        <v>0.9994891657555592</v>
       </c>
       <c r="K12">
-        <v>1.011622178878472</v>
+        <v>1.011756142279696</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.008116306463297</v>
+        <v>1.007665500315888</v>
       </c>
       <c r="N12">
-        <v>1.003332213292766</v>
+        <v>1.003138192696797</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9714017388687528</v>
+        <v>0.9686958476036023</v>
       </c>
       <c r="D13">
-        <v>0.9968905033225059</v>
+        <v>0.996893680945046</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9933762795429734</v>
+        <v>0.9927720122766827</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032482243544743</v>
+        <v>1.036949986687653</v>
       </c>
       <c r="J13">
-        <v>1.002370501591998</v>
+        <v>0.9997890781880442</v>
       </c>
       <c r="K13">
-        <v>1.012033284776916</v>
+        <v>1.012036401229429</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>1.008587024794148</v>
+        <v>1.007994507407065</v>
       </c>
       <c r="N13">
-        <v>1.003793982677762</v>
+        <v>1.003240514157201</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9733077399381828</v>
+        <v>0.9700559194426061</v>
       </c>
       <c r="D14">
-        <v>0.9984028337027403</v>
+        <v>0.9979731572111424</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.995087779907542</v>
+        <v>0.9940149201792845</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03312063467051</v>
+        <v>1.037421898730551</v>
       </c>
       <c r="J14">
-        <v>1.003872018228814</v>
+        <v>1.000767255989866</v>
       </c>
       <c r="K14">
-        <v>1.013371941722064</v>
+        <v>1.012950417499153</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>1.010120023250561</v>
+        <v>1.009067714256075</v>
       </c>
       <c r="N14">
-        <v>1.005297631640429</v>
+        <v>1.003574234788433</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9744732044351009</v>
+        <v>0.970889249286193</v>
       </c>
       <c r="D15">
-        <v>0.9993278264017124</v>
+        <v>0.9986346990473576</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.996134668848517</v>
+        <v>0.9947766947462875</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033510726652357</v>
+        <v>1.037710703302922</v>
       </c>
       <c r="J15">
-        <v>1.004790101791442</v>
+        <v>1.001366531905075</v>
       </c>
       <c r="K15">
-        <v>1.014190431902845</v>
+        <v>1.013510337873397</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>1.011057514365362</v>
+        <v>1.009725312194736</v>
       </c>
       <c r="N15">
-        <v>1.006217018987022</v>
+        <v>1.003778682741397</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.981126842601589</v>
+        <v>0.9756707207477462</v>
       </c>
       <c r="D16">
-        <v>1.004612075473998</v>
+        <v>1.002432401643701</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017256</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.002116487473386</v>
+        <v>0.999150985328528</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035733636223214</v>
+        <v>1.039362568393567</v>
       </c>
       <c r="J16">
-        <v>1.010030547621714</v>
+        <v>1.004804014007104</v>
       </c>
       <c r="K16">
-        <v>1.018862119293527</v>
+        <v>1.01672132771166</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175714</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.01641106722381</v>
+        <v>1.013498863060712</v>
       </c>
       <c r="N16">
-        <v>1.01146490685146</v>
+        <v>1.004951331375379</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9851920208498008</v>
+        <v>0.978611651677617</v>
       </c>
       <c r="D17">
-        <v>1.007843377491465</v>
+        <v>1.004769783143449</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855667</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.005775454221555</v>
+        <v>1.001844315238133</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037088031743926</v>
+        <v>1.040373901227061</v>
       </c>
       <c r="J17">
-        <v>1.013231386802537</v>
+        <v>1.006917311483888</v>
       </c>
       <c r="K17">
-        <v>1.021715267429719</v>
+        <v>1.01869469447232</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.019682970968701</v>
+        <v>1.01582008402056</v>
       </c>
       <c r="N17">
-        <v>1.014670291591061</v>
+        <v>1.005672174462157</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9875262674915182</v>
+        <v>0.9803068821598944</v>
       </c>
       <c r="D18">
-        <v>1.009699714754845</v>
+        <v>1.006117610279844</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215686</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.007877893113208</v>
+        <v>1.00339779718998</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037864341023409</v>
+        <v>1.040955143151501</v>
       </c>
       <c r="J18">
-        <v>1.01506894347386</v>
+        <v>1.008135086245675</v>
       </c>
       <c r="K18">
-        <v>1.023353092914482</v>
+        <v>1.019831574770694</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.021562015416675</v>
+        <v>1.017158136848351</v>
       </c>
       <c r="N18">
-        <v>1.016510457803628</v>
+        <v>1.006087523315591</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9883161202640802</v>
+        <v>0.9808815700918466</v>
       </c>
       <c r="D19">
-        <v>1.010328000000079</v>
+        <v>1.006574607149478</v>
       </c>
       <c r="E19">
-        <v>0.9397594814680089</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.008589544368908</v>
+        <v>1.0039245930794</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038126784975341</v>
+        <v>1.041151891363991</v>
       </c>
       <c r="J19">
-        <v>1.015690658971613</v>
+        <v>1.008547847115388</v>
       </c>
       <c r="K19">
-        <v>1.023907208438545</v>
+        <v>1.020216871394969</v>
       </c>
       <c r="L19">
-        <v>0.954635249381271</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.022197883083436</v>
+        <v>1.017611743329521</v>
       </c>
       <c r="N19">
-        <v>1.017133056208699</v>
+        <v>1.006228298564087</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9847597297293487</v>
+        <v>0.9782982222300045</v>
       </c>
       <c r="D20">
-        <v>1.007499664408058</v>
+        <v>1.004520623936345</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.005386207790785</v>
+        <v>1.001557171468439</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036944149078214</v>
+        <v>1.040266296174978</v>
       </c>
       <c r="J20">
-        <v>1.012891048146117</v>
+        <v>1.006692126424372</v>
       </c>
       <c r="K20">
-        <v>1.021411910789184</v>
+        <v>1.01848444666528</v>
       </c>
       <c r="L20">
         <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.019335003836374</v>
+        <v>1.015572695045228</v>
       </c>
       <c r="N20">
-        <v>1.014329469614711</v>
+        <v>1.005595367413942</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.972748335680417</v>
+        <v>0.9696563874412736</v>
       </c>
       <c r="D21">
-        <v>0.9979589181781716</v>
+        <v>0.9976560237076191</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9324872132148894</v>
       </c>
       <c r="F21">
-        <v>0.9945853858529696</v>
+        <v>0.9936497571991574</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032933324492347</v>
+        <v>1.037283341758241</v>
       </c>
       <c r="J21">
-        <v>1.003431338855025</v>
+        <v>1.000479921512903</v>
       </c>
       <c r="K21">
-        <v>1.012979062932899</v>
+        <v>1.012681939927807</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981065</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>1.009670071026664</v>
+        <v>1.008752443938586</v>
       </c>
       <c r="N21">
-        <v>1.004856326451383</v>
+        <v>1.003476207034244</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9648139698955669</v>
+        <v>0.964021886506865</v>
       </c>
       <c r="D22">
-        <v>0.9916673653510831</v>
+        <v>0.9931861765451174</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.9874663846022415</v>
+        <v>0.9885042998909388</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030271869165433</v>
+        <v>1.035323205336029</v>
       </c>
       <c r="J22">
-        <v>0.9971801430069194</v>
+        <v>0.996426638889731</v>
       </c>
       <c r="K22">
-        <v>1.007405720588384</v>
+        <v>1.008893835985015</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>1.0032902920624</v>
+        <v>1.00430698121309</v>
       </c>
       <c r="N22">
-        <v>0.9985962531881504</v>
+        <v>1.002093310265554</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9690590487652747</v>
+        <v>0.9670289067079003</v>
       </c>
       <c r="D23">
-        <v>0.9950323763895635</v>
+        <v>0.9955710284435412</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9912736475785352</v>
+        <v>0.9912493143123743</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031696877273529</v>
+        <v>1.036370681027487</v>
       </c>
       <c r="J23">
-        <v>1.000524845036647</v>
+        <v>0.9985900319380315</v>
       </c>
       <c r="K23">
-        <v>1.010387779484233</v>
+        <v>1.010915878609459</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285315</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>1.006703108755099</v>
+        <v>1.006679257330425</v>
       </c>
       <c r="N23">
-        <v>1.001945705078403</v>
+        <v>1.002831429967922</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9849551770041197</v>
+        <v>0.9784399096170391</v>
       </c>
       <c r="D24">
-        <v>1.007655061020442</v>
+        <v>1.004633256096646</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>1.005562189257122</v>
+        <v>1.001686973262718</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0370092055875</v>
+        <v>1.040314944930971</v>
       </c>
       <c r="J24">
-        <v>1.013044923112791</v>
+        <v>1.006793923689508</v>
       </c>
       <c r="K24">
-        <v>1.021549065731176</v>
+        <v>1.018579492200388</v>
       </c>
       <c r="L24">
-        <v>0.953371659644254</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>1.019492325669678</v>
+        <v>1.015684528385949</v>
       </c>
       <c r="N24">
-        <v>1.014483563101488</v>
+        <v>1.005630088946903</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001969921295423</v>
+        <v>0.9908979409416653</v>
       </c>
       <c r="D25">
-        <v>1.021199662595726</v>
+        <v>1.014545573241676</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718015</v>
+        <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>1.020910181859878</v>
+        <v>1.013119205982111</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04264222212897</v>
+        <v>1.044555183811082</v>
       </c>
       <c r="J25">
-        <v>1.026431171113703</v>
+        <v>1.015735556996272</v>
       </c>
       <c r="K25">
-        <v>1.033477559255994</v>
+        <v>1.026922207542299</v>
       </c>
       <c r="L25">
-        <v>0.959875449400583</v>
+        <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.033192340009689</v>
+        <v>1.025517220489807</v>
       </c>
       <c r="N25">
-        <v>1.027888821109985</v>
+        <v>1.008679135863804</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_48/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.000288590245178</v>
+        <v>1.036306149394157</v>
       </c>
       <c r="D2">
-        <v>1.022026821638819</v>
+        <v>1.043600749504522</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.021761350601165</v>
+        <v>1.050888568610685</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04769545122183</v>
+        <v>1.036444174204034</v>
       </c>
       <c r="J2">
-        <v>1.022460673053515</v>
+        <v>1.041415186115142</v>
       </c>
       <c r="K2">
-        <v>1.033187585445318</v>
+        <v>1.046374157013483</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.032925616698281</v>
+        <v>1.053641595100632</v>
       </c>
       <c r="N2">
-        <v>1.01097091078307</v>
+        <v>1.017683858959257</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.006826884355504</v>
+        <v>1.037605606681334</v>
       </c>
       <c r="D3">
-        <v>1.027238895097957</v>
+        <v>1.044640422231045</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.027790790598676</v>
+        <v>1.052132180743302</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04984803891325</v>
+        <v>1.036758847152743</v>
       </c>
       <c r="J3">
-        <v>1.027133156058474</v>
+        <v>1.042356790447942</v>
       </c>
       <c r="K3">
-        <v>1.037534719541068</v>
+        <v>1.047224300296608</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.038080014920569</v>
+        <v>1.05469663410175</v>
       </c>
       <c r="N3">
-        <v>1.012562162209734</v>
+        <v>1.018000639594662</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.010938502995404</v>
+        <v>1.038445353041566</v>
       </c>
       <c r="D4">
-        <v>1.030517326548585</v>
+        <v>1.045311889249536</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.031587524164149</v>
+        <v>1.052936023679849</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051185571294508</v>
+        <v>1.036960172815736</v>
       </c>
       <c r="J4">
-        <v>1.030066480013062</v>
+        <v>1.042964527428847</v>
       </c>
       <c r="K4">
-        <v>1.040260874222332</v>
+        <v>1.047772530998591</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.041319096055796</v>
+        <v>1.055377900122462</v>
       </c>
       <c r="N4">
-        <v>1.013560594020721</v>
+        <v>1.018204966033602</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.012639946041949</v>
+        <v>1.038798125645813</v>
       </c>
       <c r="D5">
-        <v>1.031874086014419</v>
+        <v>1.045593872120193</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.033159810427251</v>
+        <v>1.053273757049421</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051735121030037</v>
+        <v>1.037044263104284</v>
       </c>
       <c r="J5">
-        <v>1.031279079940984</v>
+        <v>1.043219653070409</v>
       </c>
       <c r="K5">
-        <v>1.041387106779617</v>
+        <v>1.048002561989118</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.042658850588855</v>
+        <v>1.055663968352341</v>
       </c>
       <c r="N5">
-        <v>1.013973196638776</v>
+        <v>1.018290709702559</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.012924077322809</v>
+        <v>1.038857342778392</v>
       </c>
       <c r="D6">
-        <v>1.032100660384586</v>
+        <v>1.045641200651578</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.033422438509441</v>
+        <v>1.053330452198752</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051826659048672</v>
+        <v>1.037058350182604</v>
       </c>
       <c r="J6">
-        <v>1.031481502206604</v>
+        <v>1.043262468344595</v>
       </c>
       <c r="K6">
-        <v>1.041575068085626</v>
+        <v>1.048041159161852</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.042882543318977</v>
+        <v>1.055711980841159</v>
       </c>
       <c r="N6">
-        <v>1.014042065118369</v>
+        <v>1.018305097368315</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.010961342360733</v>
+        <v>1.038450067810292</v>
       </c>
       <c r="D7">
-        <v>1.030535538767263</v>
+        <v>1.045315658301687</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.031608625352511</v>
+        <v>1.052940537280442</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051192963867072</v>
+        <v>1.036961298582596</v>
       </c>
       <c r="J7">
-        <v>1.030082762392723</v>
+        <v>1.042967937868903</v>
       </c>
       <c r="K7">
-        <v>1.040275999798199</v>
+        <v>1.047775606430563</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.041337082839186</v>
+        <v>1.055381723897118</v>
       </c>
       <c r="N7">
-        <v>1.013566134860697</v>
+        <v>1.018206112353313</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002523793101643</v>
+        <v>1.036745535072934</v>
       </c>
       <c r="D8">
-        <v>1.02380840838544</v>
+        <v>1.043952376315288</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.023821467596317</v>
+        <v>1.051309032489265</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04843469842072</v>
+        <v>1.036550993863393</v>
       </c>
       <c r="J8">
-        <v>1.024059037933468</v>
+        <v>1.041733727000836</v>
       </c>
       <c r="K8">
-        <v>1.034675255037905</v>
+        <v>1.046661855211145</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.034688147490423</v>
+        <v>1.053998445033738</v>
       </c>
       <c r="N8">
-        <v>1.011515354399139</v>
+        <v>1.017791051952093</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9866731091512956</v>
+        <v>1.033733405248562</v>
       </c>
       <c r="D9">
-        <v>1.011182201940332</v>
+        <v>1.041540259833056</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.009238011584176</v>
+        <v>1.048427409870793</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043125908201411</v>
+        <v>1.035810413236598</v>
       </c>
       <c r="J9">
-        <v>1.012705413559747</v>
+        <v>1.03954694497272</v>
       </c>
       <c r="K9">
-        <v>1.024096424013665</v>
+        <v>1.044684869862334</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.022182965693601</v>
+        <v>1.051549973739782</v>
       </c>
       <c r="N9">
-        <v>1.007646077596489</v>
+        <v>1.017054630644306</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9753355774086363</v>
+        <v>1.031719329537067</v>
       </c>
       <c r="D10">
-        <v>1.002166109833197</v>
+        <v>1.039925413492661</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9988441950351338</v>
+        <v>1.046501626415455</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039247086201554</v>
+        <v>1.035304817899793</v>
       </c>
       <c r="J10">
-        <v>1.004563135704162</v>
+        <v>1.038080888954356</v>
       </c>
       <c r="K10">
-        <v>1.016496364326225</v>
+        <v>1.043357045405898</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.013234349302264</v>
+        <v>1.04991011879534</v>
       </c>
       <c r="N10">
-        <v>1.00486916394374</v>
+        <v>1.016560243449318</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.970215261105922</v>
+        <v>1.030845733871083</v>
       </c>
       <c r="D11">
-        <v>0.9980996432448194</v>
+        <v>1.039224526564188</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9941605660752528</v>
+        <v>1.045666581234682</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037477141499141</v>
+        <v>1.035083058697552</v>
       </c>
       <c r="J11">
-        <v>1.000881847838565</v>
+        <v>1.037444086464644</v>
       </c>
       <c r="K11">
-        <v>1.013057486715452</v>
+        <v>1.042779717281112</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.009193452213556</v>
+        <v>1.049198215237899</v>
       </c>
       <c r="N11">
-        <v>1.003613329017081</v>
+        <v>1.016345339616539</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9682788796232915</v>
+        <v>1.030521012936867</v>
       </c>
       <c r="D12">
-        <v>0.9965627932071577</v>
+        <v>1.038963935229148</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9923910585688959</v>
+        <v>1.045356228803891</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036805173062255</v>
+        <v>1.035000260494343</v>
       </c>
       <c r="J12">
-        <v>0.9994891657555592</v>
+        <v>1.037207247153502</v>
       </c>
       <c r="K12">
-        <v>1.011756142279696</v>
+        <v>1.042564912678852</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.007665500315888</v>
+        <v>1.048933503246436</v>
       </c>
       <c r="N12">
-        <v>1.003138192696797</v>
+        <v>1.016265388779615</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9686958476036023</v>
+        <v>1.030590677106985</v>
       </c>
       <c r="D13">
-        <v>0.996893680945046</v>
+        <v>1.039019844351906</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9927720122766827</v>
+        <v>1.045422808639108</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036949986687653</v>
+        <v>1.035018040332331</v>
       </c>
       <c r="J13">
-        <v>0.9997890781880442</v>
+        <v>1.037258063734827</v>
       </c>
       <c r="K13">
-        <v>1.012036401229429</v>
+        <v>1.042611005299007</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.007994507407065</v>
+        <v>1.048990297563911</v>
       </c>
       <c r="N13">
-        <v>1.003240514157201</v>
+        <v>1.016282544225161</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9700559194426061</v>
+        <v>1.030818897030584</v>
       </c>
       <c r="D14">
-        <v>0.9979731572111424</v>
+        <v>1.039202991136198</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9940149201792845</v>
+        <v>1.045640931090084</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037421898730551</v>
+        <v>1.035076223289847</v>
       </c>
       <c r="J14">
-        <v>1.000767255989866</v>
+        <v>1.037424515444558</v>
       </c>
       <c r="K14">
-        <v>1.012950417499153</v>
+        <v>1.042761968811112</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.009067714256075</v>
+        <v>1.049176339780613</v>
       </c>
       <c r="N14">
-        <v>1.003574234788433</v>
+        <v>1.016338733432149</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.970889249286193</v>
+        <v>1.030959480411489</v>
       </c>
       <c r="D15">
-        <v>0.9986346990473576</v>
+        <v>1.039315800596359</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9947766947462875</v>
+        <v>1.04577529963059</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037710703302922</v>
+        <v>1.035112015113824</v>
       </c>
       <c r="J15">
-        <v>1.001366531905075</v>
+        <v>1.037527031646805</v>
       </c>
       <c r="K15">
-        <v>1.013510337873397</v>
+        <v>1.042854934722686</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.009725312194736</v>
+        <v>1.049290929412301</v>
       </c>
       <c r="N15">
-        <v>1.003778682741397</v>
+        <v>1.016373336728308</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9756707207477462</v>
+        <v>1.031777275426847</v>
       </c>
       <c r="D16">
-        <v>1.002432401643701</v>
+        <v>1.039971894063542</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.999150985328528</v>
+        <v>1.046557020663681</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039362568393567</v>
+        <v>1.035319475525351</v>
       </c>
       <c r="J16">
-        <v>1.004804014007104</v>
+        <v>1.038123109205423</v>
       </c>
       <c r="K16">
-        <v>1.01672132771166</v>
+        <v>1.043395310558157</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.013498863060712</v>
+        <v>1.049957326515371</v>
       </c>
       <c r="N16">
-        <v>1.004951331375379</v>
+        <v>1.016574488304615</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.978611651677617</v>
+        <v>1.032289854764711</v>
       </c>
       <c r="D17">
-        <v>1.004769783143449</v>
+        <v>1.040383000777009</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9894763578477731</v>
       </c>
       <c r="F17">
-        <v>1.001844315238133</v>
+        <v>1.047047058062477</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040373901227061</v>
+        <v>1.035448850534623</v>
       </c>
       <c r="J17">
-        <v>1.006917311483888</v>
+        <v>1.038496477551197</v>
       </c>
       <c r="K17">
-        <v>1.01869469447232</v>
+        <v>1.043733637079272</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773692701</v>
       </c>
       <c r="M17">
-        <v>1.01582008402056</v>
+        <v>1.05037484589325</v>
       </c>
       <c r="N17">
-        <v>1.005672174462157</v>
+        <v>1.016700442105839</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9803068821598944</v>
+        <v>1.032588690437554</v>
       </c>
       <c r="D18">
-        <v>1.006117610279844</v>
+        <v>1.040622633594328</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937551</v>
       </c>
       <c r="F18">
-        <v>1.00339779718998</v>
+        <v>1.047332776138751</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040955143151501</v>
+        <v>1.035524039527922</v>
       </c>
       <c r="J18">
-        <v>1.008135086245675</v>
+        <v>1.038714065166084</v>
       </c>
       <c r="K18">
-        <v>1.019831574770694</v>
+        <v>1.043930748614367</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071766</v>
       </c>
       <c r="M18">
-        <v>1.017158136848351</v>
+        <v>1.050618201021113</v>
       </c>
       <c r="N18">
-        <v>1.006087523315591</v>
+        <v>1.016773828734308</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9808815700918466</v>
+        <v>1.032690561546824</v>
       </c>
       <c r="D19">
-        <v>1.006574607149478</v>
+        <v>1.040704315356284</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9897880325774039</v>
       </c>
       <c r="F19">
-        <v>1.0039245930794</v>
+        <v>1.047430179664756</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041151891363991</v>
+        <v>1.035549630721334</v>
       </c>
       <c r="J19">
-        <v>1.008547847115388</v>
+        <v>1.038788224486721</v>
       </c>
       <c r="K19">
-        <v>1.020216871394969</v>
+        <v>1.043997919868064</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.993264023964098</v>
       </c>
       <c r="M19">
-        <v>1.017611743329521</v>
+        <v>1.050701148938352</v>
       </c>
       <c r="N19">
-        <v>1.006228298564087</v>
+        <v>1.016798838127506</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9782982222300045</v>
+        <v>1.032234874701314</v>
       </c>
       <c r="D20">
-        <v>1.004520623936345</v>
+        <v>1.040338909364006</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360677</v>
       </c>
       <c r="F20">
-        <v>1.001557171468439</v>
+        <v>1.046994493348208</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040266296174978</v>
+        <v>1.035434998095274</v>
       </c>
       <c r="J20">
-        <v>1.006692126424372</v>
+        <v>1.038456438528628</v>
       </c>
       <c r="K20">
-        <v>1.01848444666528</v>
+        <v>1.043697361513145</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.015572695045228</v>
+        <v>1.05033006833582</v>
       </c>
       <c r="N20">
-        <v>1.005595367413942</v>
+        <v>1.016686936748064</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9696563874412736</v>
+        <v>1.030751698303236</v>
       </c>
       <c r="D21">
-        <v>0.9976560237076191</v>
+        <v>1.039149065919742</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9936497571991574</v>
+        <v>1.045576704451032</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037283341758241</v>
+        <v>1.035059101655971</v>
       </c>
       <c r="J21">
-        <v>1.000479921512903</v>
+        <v>1.037375507943463</v>
       </c>
       <c r="K21">
-        <v>1.012681939927807</v>
+        <v>1.042717523759918</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.008752443938586</v>
+        <v>1.049121562723788</v>
       </c>
       <c r="N21">
-        <v>1.003476207034244</v>
+        <v>1.016322190598243</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.964021886506865</v>
+        <v>1.029817841226599</v>
       </c>
       <c r="D22">
-        <v>0.9931861765451174</v>
+        <v>1.038399511929231</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9885042998909388</v>
+        <v>1.044684243955857</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035323205336029</v>
+        <v>1.034820289709313</v>
       </c>
       <c r="J22">
-        <v>0.996426638889731</v>
+        <v>1.036694132004807</v>
       </c>
       <c r="K22">
-        <v>1.008893835985015</v>
+        <v>1.042099380986936</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.00430698121309</v>
+        <v>1.04836010948484</v>
       </c>
       <c r="N22">
-        <v>1.002093310265554</v>
+        <v>1.016092130732219</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9670289067079003</v>
+        <v>1.030313023862335</v>
       </c>
       <c r="D23">
-        <v>0.9955710284435412</v>
+        <v>1.038797003394972</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794636464</v>
       </c>
       <c r="F23">
-        <v>0.9912493143123743</v>
+        <v>1.04515745409187</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036370681027487</v>
+        <v>1.034947123102665</v>
       </c>
       <c r="J23">
-        <v>0.9985900319380315</v>
+        <v>1.037055509509446</v>
       </c>
       <c r="K23">
-        <v>1.010915878609459</v>
+        <v>1.042427268311095</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9917760702887611</v>
       </c>
       <c r="M23">
-        <v>1.006679257330425</v>
+        <v>1.04876392479292</v>
       </c>
       <c r="N23">
-        <v>1.002831429967922</v>
+        <v>1.0162141593526</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9784399096170391</v>
+        <v>1.032259718267492</v>
       </c>
       <c r="D24">
-        <v>1.004633256096646</v>
+        <v>1.040358832866116</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.001686973262718</v>
+        <v>1.04701824542724</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040314944930971</v>
+        <v>1.035441258260625</v>
       </c>
       <c r="J24">
-        <v>1.006793923689508</v>
+        <v>1.038474531032</v>
       </c>
       <c r="K24">
-        <v>1.018579492200388</v>
+        <v>1.043713753586221</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766441</v>
       </c>
       <c r="M24">
-        <v>1.015684528385949</v>
+        <v>1.05035030193291</v>
       </c>
       <c r="N24">
-        <v>1.005630088946903</v>
+        <v>1.016693039485334</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9908979409416653</v>
+        <v>1.03451314967081</v>
       </c>
       <c r="D25">
-        <v>1.014545573241676</v>
+        <v>1.042165031448804</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607051</v>
       </c>
       <c r="F25">
-        <v>1.013119205982111</v>
+        <v>1.049173192676858</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044555183811082</v>
+        <v>1.036003959583983</v>
       </c>
       <c r="J25">
-        <v>1.015735556996272</v>
+        <v>1.040113713500064</v>
       </c>
       <c r="K25">
-        <v>1.026922207542299</v>
+        <v>1.04519769069294</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426416</v>
       </c>
       <c r="M25">
-        <v>1.025517220489807</v>
+        <v>1.052184278521951</v>
       </c>
       <c r="N25">
-        <v>1.008679135863804</v>
+        <v>1.017245615294967</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_48/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.036306149394157</v>
+        <v>1.000288590245178</v>
       </c>
       <c r="D2">
-        <v>1.043600749504522</v>
+        <v>1.022026821638819</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.050888568610685</v>
+        <v>1.021761350601165</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036444174204034</v>
+        <v>1.04769545122183</v>
       </c>
       <c r="J2">
-        <v>1.041415186115142</v>
+        <v>1.022460673053516</v>
       </c>
       <c r="K2">
-        <v>1.046374157013483</v>
+        <v>1.033187585445318</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.053641595100632</v>
+        <v>1.032925616698282</v>
       </c>
       <c r="N2">
-        <v>1.017683858959257</v>
+        <v>1.01097091078307</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037605606681334</v>
+        <v>1.006826884355505</v>
       </c>
       <c r="D3">
-        <v>1.044640422231045</v>
+        <v>1.027238895097957</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.052132180743302</v>
+        <v>1.027790790598676</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036758847152743</v>
+        <v>1.04984803891325</v>
       </c>
       <c r="J3">
-        <v>1.042356790447942</v>
+        <v>1.027133156058475</v>
       </c>
       <c r="K3">
-        <v>1.047224300296608</v>
+        <v>1.037534719541069</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.05469663410175</v>
+        <v>1.038080014920569</v>
       </c>
       <c r="N3">
-        <v>1.018000639594662</v>
+        <v>1.012562162209734</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038445353041566</v>
+        <v>1.010938502995403</v>
       </c>
       <c r="D4">
-        <v>1.045311889249536</v>
+        <v>1.030517326548584</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.052936023679849</v>
+        <v>1.031587524164147</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036960172815736</v>
+        <v>1.051185571294507</v>
       </c>
       <c r="J4">
-        <v>1.042964527428847</v>
+        <v>1.030066480013061</v>
       </c>
       <c r="K4">
-        <v>1.047772530998591</v>
+        <v>1.040260874222332</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.055377900122462</v>
+        <v>1.041319096055795</v>
       </c>
       <c r="N4">
-        <v>1.018204966033602</v>
+        <v>1.01356059402072</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038798125645813</v>
+        <v>1.01263994604195</v>
       </c>
       <c r="D5">
-        <v>1.045593872120193</v>
+        <v>1.03187408601442</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.053273757049421</v>
+        <v>1.033159810427252</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037044263104284</v>
+        <v>1.051735121030037</v>
       </c>
       <c r="J5">
-        <v>1.043219653070409</v>
+        <v>1.031279079940984</v>
       </c>
       <c r="K5">
-        <v>1.048002561989118</v>
+        <v>1.041387106779617</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.055663968352341</v>
+        <v>1.042658850588856</v>
       </c>
       <c r="N5">
-        <v>1.018290709702559</v>
+        <v>1.013973196638776</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038857342778392</v>
+        <v>1.012924077322811</v>
       </c>
       <c r="D6">
-        <v>1.045641200651578</v>
+        <v>1.032100660384587</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.053330452198752</v>
+        <v>1.033422438509442</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037058350182604</v>
+        <v>1.051826659048673</v>
       </c>
       <c r="J6">
-        <v>1.043262468344595</v>
+        <v>1.031481502206606</v>
       </c>
       <c r="K6">
-        <v>1.048041159161852</v>
+        <v>1.041575068085627</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.055711980841159</v>
+        <v>1.042882543318978</v>
       </c>
       <c r="N6">
-        <v>1.018305097368315</v>
+        <v>1.01404206511837</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038450067810292</v>
+        <v>1.010961342360732</v>
       </c>
       <c r="D7">
-        <v>1.045315658301687</v>
+        <v>1.030535538767261</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.052940537280442</v>
+        <v>1.03160862535251</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036961298582596</v>
+        <v>1.051192963867071</v>
       </c>
       <c r="J7">
-        <v>1.042967937868903</v>
+        <v>1.030082762392722</v>
       </c>
       <c r="K7">
-        <v>1.047775606430563</v>
+        <v>1.040275999798197</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.055381723897118</v>
+        <v>1.041337082839184</v>
       </c>
       <c r="N7">
-        <v>1.018206112353313</v>
+        <v>1.013566134860697</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036745535072934</v>
+        <v>1.002523793101643</v>
       </c>
       <c r="D8">
-        <v>1.043952376315288</v>
+        <v>1.02380840838544</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.051309032489265</v>
+        <v>1.023821467596318</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036550993863393</v>
+        <v>1.048434698420721</v>
       </c>
       <c r="J8">
-        <v>1.041733727000836</v>
+        <v>1.024059037933468</v>
       </c>
       <c r="K8">
-        <v>1.046661855211145</v>
+        <v>1.034675255037906</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.053998445033738</v>
+        <v>1.034688147490423</v>
       </c>
       <c r="N8">
-        <v>1.017791051952093</v>
+        <v>1.011515354399139</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.033733405248562</v>
+        <v>0.9866731091512968</v>
       </c>
       <c r="D9">
-        <v>1.041540259833056</v>
+        <v>1.011182201940333</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.048427409870793</v>
+        <v>1.009238011584177</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035810413236598</v>
+        <v>1.043125908201411</v>
       </c>
       <c r="J9">
-        <v>1.03954694497272</v>
+        <v>1.012705413559748</v>
       </c>
       <c r="K9">
-        <v>1.044684869862334</v>
+        <v>1.024096424013666</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.051549973739782</v>
+        <v>1.022182965693602</v>
       </c>
       <c r="N9">
-        <v>1.017054630644306</v>
+        <v>1.007646077596489</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.031719329537067</v>
+        <v>0.975335577408637</v>
       </c>
       <c r="D10">
-        <v>1.039925413492661</v>
+        <v>1.002166109833198</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.046501626415455</v>
+        <v>0.9988441950351349</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035304817899793</v>
+        <v>1.039247086201555</v>
       </c>
       <c r="J10">
-        <v>1.038080888954356</v>
+        <v>1.004563135704163</v>
       </c>
       <c r="K10">
-        <v>1.043357045405898</v>
+        <v>1.016496364326225</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.04991011879534</v>
+        <v>1.013234349302265</v>
       </c>
       <c r="N10">
-        <v>1.016560243449318</v>
+        <v>1.004869163943741</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.030845733871083</v>
+        <v>0.9702152611059223</v>
       </c>
       <c r="D11">
-        <v>1.039224526564188</v>
+        <v>0.9980996432448195</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.045666581234682</v>
+        <v>0.9941605660752533</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035083058697552</v>
+        <v>1.037477141499141</v>
       </c>
       <c r="J11">
-        <v>1.037444086464644</v>
+        <v>1.000881847838565</v>
       </c>
       <c r="K11">
-        <v>1.042779717281112</v>
+        <v>1.013057486715452</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.049198215237899</v>
+        <v>1.009193452213556</v>
       </c>
       <c r="N11">
-        <v>1.016345339616539</v>
+        <v>1.003613329017081</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.030521012936867</v>
+        <v>0.9682788796232912</v>
       </c>
       <c r="D12">
-        <v>1.038963935229148</v>
+        <v>0.9965627932071576</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.045356228803891</v>
+        <v>0.9923910585688956</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035000260494343</v>
+        <v>1.036805173062255</v>
       </c>
       <c r="J12">
-        <v>1.037207247153502</v>
+        <v>0.999489165755559</v>
       </c>
       <c r="K12">
-        <v>1.042564912678852</v>
+        <v>1.011756142279696</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.048933503246436</v>
+        <v>1.007665500315888</v>
       </c>
       <c r="N12">
-        <v>1.016265388779615</v>
+        <v>1.003138192696797</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.030590677106985</v>
+        <v>0.9686958476036026</v>
       </c>
       <c r="D13">
-        <v>1.039019844351906</v>
+        <v>0.9968936809450465</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.045422808639108</v>
+        <v>0.992772012276683</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035018040332331</v>
+        <v>1.036949986687653</v>
       </c>
       <c r="J13">
-        <v>1.037258063734827</v>
+        <v>0.9997890781880445</v>
       </c>
       <c r="K13">
-        <v>1.042611005299007</v>
+        <v>1.012036401229429</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.048990297563911</v>
+        <v>1.007994507407065</v>
       </c>
       <c r="N13">
-        <v>1.016282544225161</v>
+        <v>1.003240514157201</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.030818897030584</v>
+        <v>0.9700559194426054</v>
       </c>
       <c r="D14">
-        <v>1.039202991136198</v>
+        <v>0.9979731572111418</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.045640931090084</v>
+        <v>0.9940149201792841</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035076223289847</v>
+        <v>1.037421898730551</v>
       </c>
       <c r="J14">
-        <v>1.037424515444558</v>
+        <v>1.000767255989865</v>
       </c>
       <c r="K14">
-        <v>1.042761968811112</v>
+        <v>1.012950417499152</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.049176339780613</v>
+        <v>1.009067714256074</v>
       </c>
       <c r="N14">
-        <v>1.016338733432149</v>
+        <v>1.003574234788433</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.030959480411489</v>
+        <v>0.9708892492861936</v>
       </c>
       <c r="D15">
-        <v>1.039315800596359</v>
+        <v>0.9986346990473585</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.933278105071747</v>
       </c>
       <c r="F15">
-        <v>1.04577529963059</v>
+        <v>0.9947766947462884</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035112015113824</v>
+        <v>1.037710703302922</v>
       </c>
       <c r="J15">
-        <v>1.037527031646805</v>
+        <v>1.001366531905075</v>
       </c>
       <c r="K15">
-        <v>1.042854934722686</v>
+        <v>1.013510337873398</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.049290929412301</v>
+        <v>1.009725312194737</v>
       </c>
       <c r="N15">
-        <v>1.016373336728308</v>
+        <v>1.003778682741397</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.031777275426847</v>
+        <v>0.9756707207477469</v>
       </c>
       <c r="D16">
-        <v>1.039971894063542</v>
+        <v>1.002432401643703</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.046557020663681</v>
+        <v>0.9991509853285292</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035319475525351</v>
+        <v>1.039362568393567</v>
       </c>
       <c r="J16">
-        <v>1.038123109205423</v>
+        <v>1.004804014007104</v>
       </c>
       <c r="K16">
-        <v>1.043395310558157</v>
+        <v>1.016721327711661</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175718</v>
       </c>
       <c r="M16">
-        <v>1.049957326515371</v>
+        <v>1.013498863060714</v>
       </c>
       <c r="N16">
-        <v>1.016574488304615</v>
+        <v>1.004951331375379</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032289854764711</v>
+        <v>0.9786116516776177</v>
       </c>
       <c r="D17">
-        <v>1.040383000777009</v>
+        <v>1.004769783143449</v>
       </c>
       <c r="E17">
-        <v>0.9894763578477731</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.047047058062477</v>
+        <v>1.001844315238134</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035448850534623</v>
+        <v>1.040373901227062</v>
       </c>
       <c r="J17">
-        <v>1.038496477551197</v>
+        <v>1.006917311483889</v>
       </c>
       <c r="K17">
-        <v>1.043733637079272</v>
+        <v>1.018694694472321</v>
       </c>
       <c r="L17">
-        <v>0.9930127773692701</v>
+        <v>0.9534603602068055</v>
       </c>
       <c r="M17">
-        <v>1.05037484589325</v>
+        <v>1.01582008402056</v>
       </c>
       <c r="N17">
-        <v>1.016700442105839</v>
+        <v>1.005672174462157</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.032588690437554</v>
+        <v>0.9803068821598948</v>
       </c>
       <c r="D18">
-        <v>1.040622633594328</v>
+        <v>1.006117610279844</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937551</v>
+        <v>0.9393832867215683</v>
       </c>
       <c r="F18">
-        <v>1.047332776138751</v>
+        <v>1.003397797189981</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035524039527922</v>
+        <v>1.040955143151502</v>
       </c>
       <c r="J18">
-        <v>1.038714065166084</v>
+        <v>1.008135086245676</v>
       </c>
       <c r="K18">
-        <v>1.043930748614367</v>
+        <v>1.019831574770695</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071766</v>
+        <v>0.9543373515865726</v>
       </c>
       <c r="M18">
-        <v>1.050618201021113</v>
+        <v>1.017158136848352</v>
       </c>
       <c r="N18">
-        <v>1.016773828734308</v>
+        <v>1.006087523315591</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.032690561546824</v>
+        <v>0.9808815700918476</v>
       </c>
       <c r="D19">
-        <v>1.040704315356284</v>
+        <v>1.006574607149479</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774039</v>
+        <v>0.9397594814684969</v>
       </c>
       <c r="F19">
-        <v>1.047430179664756</v>
+        <v>1.003924593079401</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035549630721334</v>
+        <v>1.041151891363992</v>
       </c>
       <c r="J19">
-        <v>1.038788224486721</v>
+        <v>1.008547847115389</v>
       </c>
       <c r="K19">
-        <v>1.043997919868064</v>
+        <v>1.02021687139497</v>
       </c>
       <c r="L19">
-        <v>0.993264023964098</v>
+        <v>0.9546352493816593</v>
       </c>
       <c r="M19">
-        <v>1.050701148938352</v>
+        <v>1.017611743329522</v>
       </c>
       <c r="N19">
-        <v>1.016798838127506</v>
+        <v>1.006228298564088</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.032234874701314</v>
+        <v>0.9782982222300047</v>
       </c>
       <c r="D20">
-        <v>1.040338909364006</v>
+        <v>1.004520623936345</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360677</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.046994493348208</v>
+        <v>1.00155717146844</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035434998095274</v>
+        <v>1.040266296174978</v>
       </c>
       <c r="J20">
-        <v>1.038456438528628</v>
+        <v>1.006692126424372</v>
       </c>
       <c r="K20">
-        <v>1.043697361513145</v>
+        <v>1.01848444666528</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.05033006833582</v>
+        <v>1.015572695045228</v>
       </c>
       <c r="N20">
-        <v>1.016686936748064</v>
+        <v>1.005595367413942</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.030751698303236</v>
+        <v>0.9696563874412734</v>
       </c>
       <c r="D21">
-        <v>1.039149065919742</v>
+        <v>0.9976560237076191</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.045576704451032</v>
+        <v>0.9936497571991572</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035059101655971</v>
+        <v>1.037283341758242</v>
       </c>
       <c r="J21">
-        <v>1.037375507943463</v>
+        <v>1.000479921512903</v>
       </c>
       <c r="K21">
-        <v>1.042717523759918</v>
+        <v>1.012681939927807</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.049121562723788</v>
+        <v>1.008752443938586</v>
       </c>
       <c r="N21">
-        <v>1.016322190598243</v>
+        <v>1.003476207034244</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.029817841226599</v>
+        <v>0.9640218865068657</v>
       </c>
       <c r="D22">
-        <v>1.038399511929231</v>
+        <v>0.9931861765451179</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.044684243955857</v>
+        <v>0.9885042998909391</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034820289709313</v>
+        <v>1.035323205336029</v>
       </c>
       <c r="J22">
-        <v>1.036694132004807</v>
+        <v>0.9964266388897315</v>
       </c>
       <c r="K22">
-        <v>1.042099380986936</v>
+        <v>1.008893835985015</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.04836010948484</v>
+        <v>1.00430698121309</v>
       </c>
       <c r="N22">
-        <v>1.016092130732219</v>
+        <v>1.002093310265554</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.030313023862335</v>
+        <v>0.9670289067079003</v>
       </c>
       <c r="D23">
-        <v>1.038797003394972</v>
+        <v>0.9955710284435413</v>
       </c>
       <c r="E23">
-        <v>0.9879432794636464</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.04515745409187</v>
+        <v>0.9912493143123747</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034947123102665</v>
+        <v>1.036370681027487</v>
       </c>
       <c r="J23">
-        <v>1.037055509509446</v>
+        <v>0.9985900319380313</v>
       </c>
       <c r="K23">
-        <v>1.042427268311095</v>
+        <v>1.010915878609459</v>
       </c>
       <c r="L23">
-        <v>0.9917760702887611</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.04876392479292</v>
+        <v>1.006679257330425</v>
       </c>
       <c r="N23">
-        <v>1.0162141593526</v>
+        <v>1.002831429967922</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.032259718267492</v>
+        <v>0.9784399096170383</v>
       </c>
       <c r="D24">
-        <v>1.040358832866116</v>
+        <v>1.004633256096644</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.04701824542724</v>
+        <v>1.001686973262718</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035441258260625</v>
+        <v>1.040314944930971</v>
       </c>
       <c r="J24">
-        <v>1.038474531032</v>
+        <v>1.006793923689507</v>
       </c>
       <c r="K24">
-        <v>1.043713753586221</v>
+        <v>1.018579492200387</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766441</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.05035030193291</v>
+        <v>1.015684528385947</v>
       </c>
       <c r="N24">
-        <v>1.016693039485334</v>
+        <v>1.005630088946903</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03451314967081</v>
+        <v>0.9908979409416654</v>
       </c>
       <c r="D25">
-        <v>1.042165031448804</v>
+        <v>1.014545573241676</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607051</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.049173192676858</v>
+        <v>1.013119205982111</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036003959583983</v>
+        <v>1.044555183811082</v>
       </c>
       <c r="J25">
-        <v>1.040113713500064</v>
+        <v>1.015735556996272</v>
       </c>
       <c r="K25">
-        <v>1.04519769069294</v>
+        <v>1.026922207542299</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426416</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.052184278521951</v>
+        <v>1.025517220489807</v>
       </c>
       <c r="N25">
-        <v>1.017245615294967</v>
+        <v>1.008679135863804</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_48/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,49 +412,73 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.000288590245178</v>
+        <v>1.020606414801147</v>
       </c>
       <c r="D2">
-        <v>1.022026821638819</v>
+        <v>1.037471646345187</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680758</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.021761350601165</v>
+        <v>1.040088067740663</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04769545122183</v>
+        <v>1.051408560142989</v>
       </c>
       <c r="J2">
-        <v>1.022460673053516</v>
+        <v>1.042187787512447</v>
       </c>
       <c r="K2">
-        <v>1.033187585445318</v>
+        <v>1.048432504829405</v>
       </c>
       <c r="L2">
-        <v>0.964870170840339</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.032925616698282</v>
+        <v>1.0510157953593</v>
       </c>
       <c r="N2">
-        <v>1.01097091078307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.01771676328627</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.048947921836283</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.045316234759595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.006826884355505</v>
+        <v>1.024230252347883</v>
       </c>
       <c r="D3">
-        <v>1.027238895097957</v>
+        <v>1.039886746749177</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057846</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.027790790598676</v>
+        <v>1.042661410815493</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04984803891325</v>
+        <v>1.052258523431161</v>
       </c>
       <c r="J3">
-        <v>1.027133156058475</v>
+        <v>1.044081484801397</v>
       </c>
       <c r="K3">
-        <v>1.037534719541069</v>
+        <v>1.050033490947411</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474063</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.038080014920569</v>
+        <v>1.052776047708331</v>
       </c>
       <c r="N3">
-        <v>1.012562162209734</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.018366389474617</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.050341026166021</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.046445609808162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010938502995403</v>
+        <v>1.026534903495037</v>
       </c>
       <c r="D4">
-        <v>1.030517326548584</v>
+        <v>1.041426983493835</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088611</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.031587524164147</v>
+        <v>1.044305267188299</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051185571294507</v>
+        <v>1.052791527548614</v>
       </c>
       <c r="J4">
-        <v>1.030066480013061</v>
+        <v>1.045283365587619</v>
       </c>
       <c r="K4">
-        <v>1.040260874222332</v>
+        <v>1.051049865735981</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952755</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.041319096055795</v>
+        <v>1.053896830112163</v>
       </c>
       <c r="N4">
-        <v>1.01356059402072</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.018778698161918</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.05122803786968</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.047165147817205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01263994604195</v>
+        <v>1.027498657530534</v>
       </c>
       <c r="D5">
-        <v>1.03187408601442</v>
+        <v>1.042074126964889</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.033159810427252</v>
+        <v>1.044995010610789</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051735121030037</v>
+        <v>1.053014380408704</v>
       </c>
       <c r="J5">
-        <v>1.031279079940984</v>
+        <v>1.045787282008568</v>
       </c>
       <c r="K5">
-        <v>1.041387106779617</v>
+        <v>1.051477396988827</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.042658850588856</v>
+        <v>1.054367335154825</v>
       </c>
       <c r="N5">
-        <v>1.013973196638776</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.018952115178303</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.051600405536349</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.047474541695876</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012924077322811</v>
+        <v>1.027665093826355</v>
       </c>
       <c r="D6">
-        <v>1.032100660384587</v>
+        <v>1.04218842802474</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017083</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.033422438509442</v>
+        <v>1.045114952282762</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051826659048673</v>
+        <v>1.053054953112768</v>
       </c>
       <c r="J6">
-        <v>1.031481502206606</v>
+        <v>1.045876613956623</v>
       </c>
       <c r="K6">
-        <v>1.041575068085627</v>
+        <v>1.051554800065208</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965043</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.042882543318978</v>
+        <v>1.054450459710897</v>
       </c>
       <c r="N6">
-        <v>1.01404206511837</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.018983521635866</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.051666192053262</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.047537928256156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010961342360732</v>
+        <v>1.026561727629511</v>
       </c>
       <c r="D7">
-        <v>1.030535538767261</v>
+        <v>1.041451649466621</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.03160862535251</v>
+        <v>1.044326394656507</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051192963867071</v>
+        <v>1.052803649868628</v>
       </c>
       <c r="J7">
-        <v>1.030082762392722</v>
+        <v>1.045303698867282</v>
       </c>
       <c r="K7">
-        <v>1.040275999798197</v>
+        <v>1.051071420013812</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.041337082839184</v>
+        <v>1.053914896468421</v>
       </c>
       <c r="N7">
-        <v>1.013566134860697</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.018787503537696</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.051242335970491</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.047200301108375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.002523793101643</v>
+        <v>1.02185714117917</v>
       </c>
       <c r="D8">
-        <v>1.02380840838544</v>
+        <v>1.03831258553248</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922295</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.023821467596318</v>
+        <v>1.040977129232466</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048434698420721</v>
+        <v>1.051710845310081</v>
       </c>
       <c r="J8">
-        <v>1.024059037933468</v>
+        <v>1.042849769341232</v>
       </c>
       <c r="K8">
-        <v>1.034675255037906</v>
+        <v>1.048997440433209</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537708</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.034688147490423</v>
+        <v>1.05162923656776</v>
       </c>
       <c r="N8">
-        <v>1.011515354399139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.01794622549685</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.049433413660591</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.045738377859016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9866731091512968</v>
+        <v>1.013223789869551</v>
       </c>
       <c r="D9">
-        <v>1.011182201940333</v>
+        <v>1.032577117157212</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925935</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.009238011584177</v>
+        <v>1.034887170383933</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043125908201411</v>
+        <v>1.049637486196116</v>
       </c>
       <c r="J9">
-        <v>1.012705413559748</v>
+        <v>1.038318071023788</v>
       </c>
       <c r="K9">
-        <v>1.024096424013666</v>
+        <v>1.045162874473107</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834084</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.022182965693602</v>
+        <v>1.047438495630149</v>
       </c>
       <c r="N9">
-        <v>1.007646077596489</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.016389709010348</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.04611675621883</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.043023984902175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.975335577408637</v>
+        <v>1.007311485056985</v>
       </c>
       <c r="D10">
-        <v>1.002166109833198</v>
+        <v>1.028703935390813</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547281</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>0.9988441950351349</v>
+        <v>1.030837965677698</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039247086201555</v>
+        <v>1.048208341747383</v>
       </c>
       <c r="J10">
-        <v>1.004563135704163</v>
+        <v>1.035237989188029</v>
       </c>
       <c r="K10">
-        <v>1.016496364326225</v>
+        <v>1.042573575593847</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.013234349302265</v>
+        <v>1.044671893165053</v>
       </c>
       <c r="N10">
-        <v>1.004869163943741</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.015341316471887</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.04397828686075</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.041209893215889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9702152611059223</v>
+        <v>1.005296505097061</v>
       </c>
       <c r="D11">
-        <v>0.9980996432448195</v>
+        <v>1.027608747706907</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016256</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.9941605660752533</v>
+        <v>1.030097755732168</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037477141499141</v>
+        <v>1.047929575347831</v>
       </c>
       <c r="J11">
-        <v>1.000881847838565</v>
+        <v>1.034450591263361</v>
       </c>
       <c r="K11">
-        <v>1.013057486715452</v>
+        <v>1.042028132120437</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416571</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.009193452213556</v>
+        <v>1.044473549766635</v>
       </c>
       <c r="N11">
-        <v>1.003613329017081</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.01514816264684</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.044254640422082</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.040856835483144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9682788796232912</v>
+        <v>1.004751392043591</v>
       </c>
       <c r="D12">
-        <v>0.9965627932071576</v>
+        <v>1.027409593976818</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9923910585688956</v>
+        <v>1.030188777004373</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036805173062255</v>
+        <v>1.047949596530405</v>
       </c>
       <c r="J12">
-        <v>0.999489165755559</v>
+        <v>1.034356016852388</v>
       </c>
       <c r="K12">
-        <v>1.011756142279696</v>
+        <v>1.042029858142034</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252506</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.007665500315888</v>
+        <v>1.044759594749244</v>
       </c>
       <c r="N12">
-        <v>1.003138192696797</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.015173368760886</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.04480525990676</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.040858055818232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9686958476036026</v>
+        <v>1.005321003820173</v>
       </c>
       <c r="D13">
-        <v>0.9968936809450465</v>
+        <v>1.027908795273375</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368229</v>
+        <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>0.992772012276683</v>
+        <v>1.030953531338625</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036949986687653</v>
+        <v>1.048217499972151</v>
       </c>
       <c r="J13">
-        <v>0.9997890781880445</v>
+        <v>1.034810059977677</v>
       </c>
       <c r="K13">
-        <v>1.012036401229429</v>
+        <v>1.042477845117994</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.007994507407065</v>
+        <v>1.045468676588009</v>
       </c>
       <c r="N13">
-        <v>1.003240514157201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.015378206601723</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.0456410249728</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.041172320058641</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9700559194426054</v>
+        <v>1.006224353581445</v>
       </c>
       <c r="D14">
-        <v>0.9979731572111418</v>
+        <v>1.028574587818233</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>0.9940149201792841</v>
+        <v>1.031792913695353</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037421898730551</v>
+        <v>1.048516788911853</v>
       </c>
       <c r="J14">
-        <v>1.000767255989865</v>
+        <v>1.035375752787462</v>
       </c>
       <c r="K14">
-        <v>1.012950417499152</v>
+        <v>1.042993314597968</v>
       </c>
       <c r="L14">
-        <v>0.949074550976452</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.009067714256074</v>
+        <v>1.046155392637589</v>
       </c>
       <c r="N14">
-        <v>1.003574234788433</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.015602682149177</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.04635630969003</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.041538181208481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9708892492861936</v>
+        <v>1.00669540422005</v>
       </c>
       <c r="D15">
-        <v>0.9986346990473585</v>
+        <v>1.028899768087658</v>
       </c>
       <c r="E15">
-        <v>0.933278105071747</v>
+        <v>0.9332781050737292</v>
       </c>
       <c r="F15">
-        <v>0.9947766947462884</v>
+        <v>1.032162413190337</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037710703302922</v>
+        <v>1.048649995629029</v>
       </c>
       <c r="J15">
-        <v>1.001366531905075</v>
+        <v>1.035642854705993</v>
       </c>
       <c r="K15">
-        <v>1.013510337873398</v>
+        <v>1.043227489410901</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767192</v>
+        <v>0.9494987508782936</v>
       </c>
       <c r="M15">
-        <v>1.009725312194737</v>
+        <v>1.046433549506556</v>
       </c>
       <c r="N15">
-        <v>1.003778682741397</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.015700720918519</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.0466135270866</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.041709569436375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9756707207477469</v>
+        <v>1.009092548051651</v>
       </c>
       <c r="D16">
-        <v>1.002432401643703</v>
+        <v>1.030451367599869</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017261</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9991509853285292</v>
+        <v>1.033765027123469</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039362568393567</v>
+        <v>1.049220168864709</v>
       </c>
       <c r="J16">
-        <v>1.004804014007104</v>
+        <v>1.036874355192502</v>
       </c>
       <c r="K16">
-        <v>1.016721327711661</v>
+        <v>1.044256621148174</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175718</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.013498863060714</v>
+        <v>1.047515310473938</v>
       </c>
       <c r="N16">
-        <v>1.004951331375379</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.016110775107516</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.04743002161658</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.042440330403312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9786116516776177</v>
+        <v>1.010460683331019</v>
       </c>
       <c r="D17">
-        <v>1.004769783143449</v>
+        <v>1.031294891552143</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.001844315238134</v>
+        <v>1.034551068339101</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040373901227062</v>
+        <v>1.049499213632528</v>
       </c>
       <c r="J17">
-        <v>1.006917311483889</v>
+        <v>1.037522724322605</v>
       </c>
       <c r="K17">
-        <v>1.018694694472321</v>
+        <v>1.044775589828319</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068055</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.01582008402056</v>
+        <v>1.047979249589032</v>
       </c>
       <c r="N17">
-        <v>1.005672174462157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.016307771003957</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.047668357804944</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.042809821024393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9803068821598948</v>
+        <v>1.01104861609689</v>
       </c>
       <c r="D18">
-        <v>1.006117610279844</v>
+        <v>1.031574813940947</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215683</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.003397797189981</v>
+        <v>1.034649684040805</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040955143151502</v>
+        <v>1.049535906169007</v>
       </c>
       <c r="J18">
-        <v>1.008135086245676</v>
+        <v>1.037700621448</v>
       </c>
       <c r="K18">
-        <v>1.019831574770695</v>
+        <v>1.044869908165228</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.017158136848352</v>
+        <v>1.04789597131544</v>
       </c>
       <c r="N18">
-        <v>1.006087523315591</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.016326482260101</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.047366202821011</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.042864971476933</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9808815700918476</v>
+        <v>1.010943991263745</v>
       </c>
       <c r="D19">
-        <v>1.006574607149479</v>
+        <v>1.031361035071491</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.003924593079401</v>
+        <v>1.034130606739271</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041151891363992</v>
+        <v>1.049365015021608</v>
       </c>
       <c r="J19">
-        <v>1.008547847115389</v>
+        <v>1.037467579800451</v>
       </c>
       <c r="K19">
-        <v>1.02021687139497</v>
+        <v>1.044597773745396</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816593</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.017611743329522</v>
+        <v>1.047323578499579</v>
       </c>
       <c r="N19">
-        <v>1.006228298564088</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.016193754772356</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.046590191879918</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.042678907583142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9782982222300047</v>
+        <v>1.008881862234394</v>
       </c>
       <c r="D20">
-        <v>1.004520623936345</v>
+        <v>1.029749005326715</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.00155717146844</v>
+        <v>1.031919850116322</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040266296174978</v>
+        <v>1.048606861763333</v>
       </c>
       <c r="J20">
-        <v>1.006692126424372</v>
+        <v>1.036074644886168</v>
       </c>
       <c r="K20">
-        <v>1.01848444666528</v>
+        <v>1.043288174877756</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.015572695045228</v>
+        <v>1.045423725202164</v>
       </c>
       <c r="N20">
-        <v>1.005595367413942</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.015631875657821</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.04456279913615</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.041756877766063</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9696563874412734</v>
+        <v>1.004327737188643</v>
       </c>
       <c r="D21">
-        <v>0.9976560237076191</v>
+        <v>1.026730560692344</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148896</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9936497571991572</v>
+        <v>1.028692327811289</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037283341758242</v>
+        <v>1.047449907434953</v>
       </c>
       <c r="J21">
-        <v>1.000479921512903</v>
+        <v>1.033645625267585</v>
       </c>
       <c r="K21">
-        <v>1.012681939927807</v>
+        <v>1.041222613971797</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.008752443938586</v>
+        <v>1.043149768141116</v>
       </c>
       <c r="N21">
-        <v>1.003476207034244</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.014790840642242</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.042722534280519</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.040299674394685</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9640218865068657</v>
+        <v>1.001430397947917</v>
       </c>
       <c r="D22">
-        <v>0.9931861765451179</v>
+        <v>1.024822979234625</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.9885042998909391</v>
+        <v>1.026686319611342</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035323205336029</v>
+        <v>1.046713456780946</v>
       </c>
       <c r="J22">
-        <v>0.9964266388897315</v>
+        <v>1.032107937396034</v>
       </c>
       <c r="K22">
-        <v>1.008893835985015</v>
+        <v>1.039918221789315</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.00430698121309</v>
+        <v>1.041747026272111</v>
       </c>
       <c r="N22">
-        <v>1.002093310265554</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.014260475759232</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.041612360702447</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.039364017973529</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9670289067079003</v>
+        <v>1.002958094044643</v>
       </c>
       <c r="D23">
-        <v>0.9955710284435413</v>
+        <v>1.025822090351029</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.9912493143123747</v>
+        <v>1.027741219595133</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036370681027487</v>
+        <v>1.047097098970407</v>
       </c>
       <c r="J23">
-        <v>0.9985900319380313</v>
+        <v>1.032913054758324</v>
       </c>
       <c r="K23">
-        <v>1.010915878609459</v>
+        <v>1.040597411746577</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285314</v>
+        <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.006679257330425</v>
+        <v>1.04248187996016</v>
       </c>
       <c r="N23">
-        <v>1.002831429967922</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.014536164836033</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.042193946996803</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.039834661209875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9784399096170383</v>
+        <v>1.008877871183013</v>
       </c>
       <c r="D24">
-        <v>1.004633256096644</v>
+        <v>1.029716110553642</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.001686973262718</v>
+        <v>1.031851901459229</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040314944930971</v>
+        <v>1.048577171479026</v>
       </c>
       <c r="J24">
-        <v>1.006793923689507</v>
+        <v>1.036038406301338</v>
       </c>
       <c r="K24">
-        <v>1.018579492200387</v>
+        <v>1.043240728622312</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.015684528385947</v>
+        <v>1.045341835002356</v>
       </c>
       <c r="N24">
-        <v>1.005630088946903</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.015609772550295</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.044457400832984</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.041696141040251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9908979409416654</v>
+        <v>1.015518331848222</v>
       </c>
       <c r="D25">
-        <v>1.014545573241676</v>
+        <v>1.034107548486108</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718014</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.013119205982111</v>
+        <v>1.036501652192046</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044555183811082</v>
+        <v>1.050204508060748</v>
       </c>
       <c r="J25">
-        <v>1.015735556996272</v>
+        <v>1.039534495435394</v>
       </c>
       <c r="K25">
-        <v>1.026922207542299</v>
+        <v>1.046198495129896</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.025517220489807</v>
+        <v>1.048558571438918</v>
       </c>
       <c r="N25">
-        <v>1.008679135863804</v>
+        <v>1.016810657676688</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.04700321375147</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.043784561797372</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_48/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020606414801147</v>
+        <v>1.019186599226646</v>
       </c>
       <c r="D2">
-        <v>1.037471646345187</v>
+        <v>1.035549918232159</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9527101846680759</v>
       </c>
       <c r="F2">
-        <v>1.040088067740663</v>
+        <v>1.038696549044773</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.051408560142989</v>
+        <v>1.050511485957501</v>
       </c>
       <c r="J2">
-        <v>1.042187787512447</v>
+        <v>1.040808204504641</v>
       </c>
       <c r="K2">
-        <v>1.048432504829405</v>
+        <v>1.046535244139749</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.0510157953593</v>
+        <v>1.049641871058811</v>
       </c>
       <c r="N2">
-        <v>1.01771676328627</v>
+        <v>1.017861574954047</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.048947921836283</v>
+        <v>1.047860564625488</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.045316234759595</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.043983428568448</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024327694605038</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024230252347883</v>
+        <v>1.022630424800725</v>
       </c>
       <c r="D3">
-        <v>1.039886746749177</v>
+        <v>1.037765228340735</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.042661410815493</v>
+        <v>1.041120449164077</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.052258523431161</v>
+        <v>1.051253319444487</v>
       </c>
       <c r="J3">
-        <v>1.044081484801397</v>
+        <v>1.042522613142114</v>
       </c>
       <c r="K3">
-        <v>1.050033490947411</v>
+        <v>1.047936665139064</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.052776047708331</v>
+        <v>1.051252891340894</v>
       </c>
       <c r="N3">
-        <v>1.018366389474617</v>
+        <v>1.018326262860256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.050341026166021</v>
+        <v>1.04913556521938</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.046445609808162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.044971421291276</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024608317513686</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026534903495037</v>
+        <v>1.024821868697187</v>
       </c>
       <c r="D4">
-        <v>1.041426983493835</v>
+        <v>1.039179250039493</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.044305267188299</v>
+        <v>1.042670052180107</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.052791527548614</v>
+        <v>1.051717990451316</v>
       </c>
       <c r="J4">
-        <v>1.045283365587619</v>
+        <v>1.043611257008365</v>
       </c>
       <c r="K4">
-        <v>1.051049865735981</v>
+        <v>1.04882673860325</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.053896830112163</v>
+        <v>1.052279382251349</v>
       </c>
       <c r="N4">
-        <v>1.018778698161918</v>
+        <v>1.018621435047087</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.05122803786968</v>
+        <v>1.049947953925681</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.047165147817205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.045601738721071</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024784264019301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027498657530534</v>
+        <v>1.025738460920219</v>
       </c>
       <c r="D5">
-        <v>1.042074126964889</v>
+        <v>1.039773766770584</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.044995010610789</v>
+        <v>1.043320516449132</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.053014380408704</v>
+        <v>1.051912302774749</v>
       </c>
       <c r="J5">
-        <v>1.045787282008568</v>
+        <v>1.044067898247122</v>
       </c>
       <c r="K5">
-        <v>1.051477396988827</v>
+        <v>1.04920155796336</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.054367335154825</v>
+        <v>1.052710555592242</v>
       </c>
       <c r="N5">
-        <v>1.018952115178303</v>
+        <v>1.018745670871452</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.051600405536349</v>
+        <v>1.050289194240627</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.047474541695876</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.045874574830853</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024858404955195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027665093826355</v>
+        <v>1.025896630601307</v>
       </c>
       <c r="D6">
-        <v>1.04218842802474</v>
+        <v>1.039878936728955</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.045114952282762</v>
+        <v>1.043433627156548</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.053054953112768</v>
+        <v>1.051947869835619</v>
       </c>
       <c r="J6">
-        <v>1.045876613956623</v>
+        <v>1.044148946983599</v>
       </c>
       <c r="K6">
-        <v>1.051554800065208</v>
+        <v>1.049269815946334</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.054450459710897</v>
+        <v>1.052786840815538</v>
       </c>
       <c r="N6">
-        <v>1.018983521635866</v>
+        <v>1.018768208441675</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.051666192053262</v>
+        <v>1.050349568072106</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.047537928256156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.04593236622357</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024872605810323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026561727629511</v>
+        <v>1.024856760301806</v>
       </c>
       <c r="D7">
-        <v>1.041451649466621</v>
+        <v>1.039209275436892</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.044326394656507</v>
+        <v>1.042695812445572</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.052803649868628</v>
+        <v>1.05173390088662</v>
       </c>
       <c r="J7">
-        <v>1.045303698867282</v>
+        <v>1.043639446926699</v>
       </c>
       <c r="K7">
-        <v>1.051071420013812</v>
+        <v>1.048853583888246</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.053914896468421</v>
+        <v>1.052302024205267</v>
       </c>
       <c r="N7">
-        <v>1.018787503537696</v>
+        <v>1.018656572383322</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.051242335970491</v>
+        <v>1.049965873282995</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.047200301108375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.045642636700058</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024792466132705</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02185714117917</v>
+        <v>1.020404525667177</v>
       </c>
       <c r="D8">
-        <v>1.03831258553248</v>
+        <v>1.036343117690468</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.040977129232466</v>
+        <v>1.039551866689012</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.051710845310081</v>
+        <v>1.050790958636995</v>
       </c>
       <c r="J8">
-        <v>1.042849769341232</v>
+        <v>1.04143695024673</v>
       </c>
       <c r="K8">
-        <v>1.048997440433209</v>
+        <v>1.04705231234747</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.05162923656776</v>
+        <v>1.050221464694852</v>
       </c>
       <c r="N8">
-        <v>1.01794622549685</v>
+        <v>1.018113303436534</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.049433413660591</v>
+        <v>1.048319269363692</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.045738377859016</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.044373997896406</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024437012894374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.013223789869551</v>
+        <v>1.012213067379373</v>
       </c>
       <c r="D9">
-        <v>1.032577117157212</v>
+        <v>1.031092418692845</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.034887170383933</v>
+        <v>1.033825866222942</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.049637486196116</v>
+        <v>1.048980470572122</v>
       </c>
       <c r="J9">
-        <v>1.038318071023788</v>
+        <v>1.037341801490997</v>
       </c>
       <c r="K9">
-        <v>1.045162874473107</v>
+        <v>1.043700409558531</v>
       </c>
       <c r="L9">
         <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.047438495630149</v>
+        <v>1.046392986241608</v>
       </c>
       <c r="N9">
-        <v>1.016389709010348</v>
+        <v>1.017012195996116</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.04611675621883</v>
+        <v>1.045289311553751</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.043023984902175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.042000592027251</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023751350877802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.007311485056985</v>
+        <v>1.006648840822513</v>
       </c>
       <c r="D10">
-        <v>1.028703935390813</v>
+        <v>1.027581806565524</v>
       </c>
       <c r="E10">
         <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.030837965677698</v>
+        <v>1.030052736288294</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048208341747383</v>
+        <v>1.047751408992474</v>
       </c>
       <c r="J10">
-        <v>1.035237989188029</v>
+        <v>1.034601123416499</v>
       </c>
       <c r="K10">
-        <v>1.042573575593847</v>
+        <v>1.041470302183679</v>
       </c>
       <c r="L10">
         <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.044671893165053</v>
+        <v>1.043899782311507</v>
       </c>
       <c r="N10">
-        <v>1.015341316471887</v>
+        <v>1.016394447969909</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.04397828686075</v>
+        <v>1.043367253181525</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.041209893215889</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.04044214668079</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023295912783691</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.005296505097061</v>
+        <v>1.004769828197211</v>
       </c>
       <c r="D11">
-        <v>1.027608747706907</v>
+        <v>1.026609230194103</v>
       </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.030097755732168</v>
+        <v>1.02941023473396</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.047929575347831</v>
+        <v>1.047539335273399</v>
       </c>
       <c r="J11">
-        <v>1.034450591263361</v>
+        <v>1.033945514244979</v>
       </c>
       <c r="K11">
-        <v>1.042028132120437</v>
+        <v>1.041046196423016</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.044473549766635</v>
+        <v>1.043798042134718</v>
       </c>
       <c r="N11">
-        <v>1.01514816264684</v>
+        <v>1.016498371379817</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.044254640422082</v>
+        <v>1.043720322212208</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.040856835483144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.040178092791588</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02327569770462</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.004751392043591</v>
+        <v>1.004248182454319</v>
       </c>
       <c r="D12">
-        <v>1.027409593976818</v>
+        <v>1.026426456696517</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.030188777004373</v>
+        <v>1.02951580703505</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.047949596530405</v>
+        <v>1.047565168886392</v>
       </c>
       <c r="J12">
-        <v>1.034356016852388</v>
+        <v>1.033873833444472</v>
       </c>
       <c r="K12">
-        <v>1.042029858142034</v>
+        <v>1.041064295826929</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.044759594749244</v>
+        <v>1.044098566281465</v>
       </c>
       <c r="N12">
-        <v>1.015173368760886</v>
+        <v>1.016618242662799</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.04480525990676</v>
+        <v>1.044282569412109</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.040858055818232</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.040190889224185</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023325369229258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.005321003820173</v>
+        <v>1.004740050898531</v>
       </c>
       <c r="D13">
-        <v>1.027908795273375</v>
+        <v>1.026849744893265</v>
       </c>
       <c r="E13">
         <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.030953531338625</v>
+        <v>1.030222411749729</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.048217499972151</v>
+        <v>1.047785026633893</v>
       </c>
       <c r="J13">
-        <v>1.034810059977677</v>
+        <v>1.034253256669917</v>
       </c>
       <c r="K13">
-        <v>1.042477845117994</v>
+        <v>1.041437641641719</v>
       </c>
       <c r="L13">
         <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.045468676588009</v>
+        <v>1.044750463183724</v>
       </c>
       <c r="N13">
-        <v>1.015378206601723</v>
+        <v>1.016728519771528</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.0456410249728</v>
+        <v>1.045073258231367</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.041172320058641</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.040452132982598</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023437996902816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.006224353581445</v>
+        <v>1.005544349258577</v>
       </c>
       <c r="D14">
-        <v>1.028574587818233</v>
+        <v>1.027421864123242</v>
       </c>
       <c r="E14">
         <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.031792913695353</v>
+        <v>1.030989176832627</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.048516788911853</v>
+        <v>1.048027385330554</v>
       </c>
       <c r="J14">
-        <v>1.035375752787462</v>
+        <v>1.034723609274465</v>
       </c>
       <c r="K14">
-        <v>1.042993314597968</v>
+        <v>1.041860848573319</v>
       </c>
       <c r="L14">
         <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.046155392637589</v>
+        <v>1.045365660371192</v>
       </c>
       <c r="N14">
-        <v>1.015602682149177</v>
+        <v>1.016802997091157</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.04635630969003</v>
+        <v>1.045732088953997</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.041538181208481</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.040752895558733</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023545841949956</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.00669540422005</v>
+        <v>1.005969399146</v>
       </c>
       <c r="D15">
-        <v>1.028899768087658</v>
+        <v>1.027704103271118</v>
       </c>
       <c r="E15">
         <v>0.9332781050737292</v>
       </c>
       <c r="F15">
-        <v>1.032162413190337</v>
+        <v>1.031325205728593</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.048649995629029</v>
+        <v>1.048135144810395</v>
       </c>
       <c r="J15">
-        <v>1.035642854705993</v>
+        <v>1.034946335977009</v>
       </c>
       <c r="K15">
-        <v>1.043227489410901</v>
+        <v>1.042052677867346</v>
       </c>
       <c r="L15">
         <v>0.9494987508782936</v>
       </c>
       <c r="M15">
-        <v>1.046433549506556</v>
+        <v>1.045610817798607</v>
       </c>
       <c r="N15">
-        <v>1.015700720918519</v>
+        <v>1.016825316767726</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.0466135270866</v>
+        <v>1.045963239911458</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.041709569436375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.040894913722415</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02358962548327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.009092548051651</v>
+        <v>1.008167614281016</v>
       </c>
       <c r="D16">
-        <v>1.030451367599869</v>
+        <v>1.029069659096586</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.033765027123469</v>
+        <v>1.032782528575799</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.049220168864709</v>
+        <v>1.048598904493777</v>
       </c>
       <c r="J16">
-        <v>1.036874355192502</v>
+        <v>1.035985123111942</v>
       </c>
       <c r="K16">
-        <v>1.044256621148174</v>
+        <v>1.042897968530641</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.047515310473938</v>
+        <v>1.046549063208836</v>
       </c>
       <c r="N16">
-        <v>1.016110775107516</v>
+        <v>1.016890710028679</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.04743002161658</v>
+        <v>1.046666278154823</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.042440330403312</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.04149599436932</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023755159627341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.010460683331019</v>
+        <v>1.009446150392502</v>
       </c>
       <c r="D17">
-        <v>1.031294891552143</v>
+        <v>1.02982709410964</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.034551068339101</v>
+        <v>1.033501579105015</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.049499213632528</v>
+        <v>1.048830843734637</v>
       </c>
       <c r="J17">
-        <v>1.037522724322605</v>
+        <v>1.036546104967173</v>
       </c>
       <c r="K17">
-        <v>1.044775589828319</v>
+        <v>1.043331605138394</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.047979249589032</v>
+        <v>1.046946640597394</v>
       </c>
       <c r="N17">
-        <v>1.016307771003957</v>
+        <v>1.01693147880953</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.047668357804944</v>
+        <v>1.046852079961246</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.042809821024393</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.041805401394298</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023826886283746</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.01104861609689</v>
+        <v>1.010018953975436</v>
       </c>
       <c r="D18">
-        <v>1.031574813940947</v>
+        <v>1.030091898387855</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.034649684040805</v>
+        <v>1.033588040717475</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.049535906169007</v>
+        <v>1.048862282369708</v>
       </c>
       <c r="J18">
-        <v>1.037700621448</v>
+        <v>1.03670872848599</v>
       </c>
       <c r="K18">
-        <v>1.044869908165228</v>
+        <v>1.043410664229743</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.04789597131544</v>
+        <v>1.046851137256499</v>
       </c>
       <c r="N18">
-        <v>1.016326482260101</v>
+        <v>1.016906549540791</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.047366202821011</v>
+        <v>1.04654009071462</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.042864971476933</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.041848627169317</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023811603471174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.010943991263745</v>
+        <v>1.009957188733311</v>
       </c>
       <c r="D19">
-        <v>1.031361035071491</v>
+        <v>1.029920477421973</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.034130606739271</v>
+        <v>1.033100775127577</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.049365015021608</v>
+        <v>1.048719440415781</v>
       </c>
       <c r="J19">
-        <v>1.037467579800451</v>
+        <v>1.036516771544994</v>
       </c>
       <c r="K19">
-        <v>1.044597773745396</v>
+        <v>1.043180100140471</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.047323578499579</v>
+        <v>1.046309985998676</v>
       </c>
       <c r="N19">
-        <v>1.016193754772356</v>
+        <v>1.01680838748982</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.046590191879918</v>
+        <v>1.045788522609701</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.042678907583142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041692581387063</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023722161686913</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.008881862234394</v>
+        <v>1.008097076318245</v>
       </c>
       <c r="D20">
-        <v>1.029749005326715</v>
+        <v>1.028509243493185</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.031919850116322</v>
+        <v>1.031043265683983</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.048606861763333</v>
+        <v>1.048081736959772</v>
       </c>
       <c r="J20">
-        <v>1.036074644886168</v>
+        <v>1.035319398400911</v>
       </c>
       <c r="K20">
-        <v>1.043288174877756</v>
+        <v>1.042068655502981</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.045423725202164</v>
+        <v>1.044561369652094</v>
       </c>
       <c r="N20">
-        <v>1.015631875657821</v>
+        <v>1.016491543373667</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.04456279913615</v>
+        <v>1.043880339422578</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.041756877766063</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.04091104471296</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023421673875299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.004327737188643</v>
+        <v>1.003959235271351</v>
       </c>
       <c r="D21">
-        <v>1.026730560692344</v>
+        <v>1.025880217652397</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.028692327811289</v>
+        <v>1.028120430244087</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.047449907434953</v>
+        <v>1.047154735298885</v>
       </c>
       <c r="J21">
-        <v>1.033645625267585</v>
+        <v>1.033292350110527</v>
       </c>
       <c r="K21">
-        <v>1.041222613971797</v>
+        <v>1.040387327535445</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.043149768141116</v>
+        <v>1.042587943312635</v>
       </c>
       <c r="N21">
-        <v>1.014790840642242</v>
+        <v>1.016362646801358</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.042722534280519</v>
+        <v>1.042277888827424</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.040299674394685</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.039725832865861</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023075251851532</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.001430397947917</v>
+        <v>1.001325410565031</v>
       </c>
       <c r="D22">
-        <v>1.024822979234625</v>
+        <v>1.024219218126764</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.026686319611342</v>
+        <v>1.026307559315312</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046713456780946</v>
+        <v>1.046563958870745</v>
       </c>
       <c r="J22">
-        <v>1.032107937396034</v>
+        <v>1.032007539912378</v>
       </c>
       <c r="K22">
-        <v>1.039918221789315</v>
+        <v>1.039325686195361</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.041747026272111</v>
+        <v>1.041375272831054</v>
       </c>
       <c r="N22">
-        <v>1.014260475759232</v>
+        <v>1.016276454488996</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.041612360702447</v>
+        <v>1.041318143172497</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.039364017973529</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.038960509994094</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022856506551689</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.002958094044643</v>
+        <v>1.002697913144249</v>
       </c>
       <c r="D23">
-        <v>1.025822090351029</v>
+        <v>1.02507625138785</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.027741219595133</v>
+        <v>1.027250511991844</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.047097098970407</v>
+        <v>1.046862591020711</v>
       </c>
       <c r="J23">
-        <v>1.032913054758324</v>
+        <v>1.032663916349444</v>
       </c>
       <c r="K23">
-        <v>1.040597411746577</v>
+        <v>1.039865088793059</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.04248187996016</v>
+        <v>1.042000018914072</v>
       </c>
       <c r="N23">
-        <v>1.014536164836033</v>
+        <v>1.016273633068941</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.042193946996803</v>
+        <v>1.041812587079832</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.039834661209875</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.03933137662372</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022964305877016</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.008877871183013</v>
+        <v>1.008098259354629</v>
       </c>
       <c r="D24">
-        <v>1.029716110553642</v>
+        <v>1.028481297451113</v>
       </c>
       <c r="E24">
         <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.031851901459229</v>
+        <v>1.030979073688124</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.048577171479026</v>
+        <v>1.048055634479419</v>
       </c>
       <c r="J24">
-        <v>1.036038406301338</v>
+        <v>1.035288098147358</v>
       </c>
       <c r="K24">
-        <v>1.043240728622312</v>
+        <v>1.042026052929171</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.045341835002356</v>
+        <v>1.044483159360513</v>
       </c>
       <c r="N24">
-        <v>1.015609772550295</v>
+        <v>1.016472584629047</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.044457400832984</v>
+        <v>1.04377782002332</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.041696141040251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.040851058245031</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023404216139604</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.015518331848222</v>
+        <v>1.014375985527113</v>
       </c>
       <c r="D25">
-        <v>1.034107548486108</v>
+        <v>1.032484053064416</v>
       </c>
       <c r="E25">
         <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.036501652192046</v>
+        <v>1.035335094476795</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.050204508060748</v>
+        <v>1.049470683575824</v>
       </c>
       <c r="J25">
-        <v>1.039534495435394</v>
+        <v>1.038429040658577</v>
       </c>
       <c r="K25">
-        <v>1.046198495129896</v>
+        <v>1.044598188101971</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.048558571438918</v>
+        <v>1.047408569144369</v>
       </c>
       <c r="N25">
-        <v>1.016810657676688</v>
+        <v>1.01727586720749</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.04700321375147</v>
+        <v>1.046093071594155</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.043784561797372</v>
+        <v>1.042666515243552</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023939021848162</v>
       </c>
     </row>
   </sheetData>
